--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D8036-BC90-443F-BFE0-8BB58EF486ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5B291-87D5-4167-9350-E72134883D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{A3926FB3-B729-449F-AF60-A6E01109C263}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A3926FB3-B729-449F-AF60-A6E01109C263}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>Alibiba</t>
   </si>
@@ -74,17 +75,217 @@
     <t>HKD/RMB</t>
   </si>
   <si>
-    <t>Employee Count</t>
+    <t>Main</t>
   </si>
   <si>
-    <t>Q324</t>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>Taobao &amp; Tmall Group</t>
+  </si>
+  <si>
+    <t>Cloud Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Digital Commerce </t>
+  </si>
+  <si>
+    <t>Smart Logistics</t>
+  </si>
+  <si>
+    <t>Local Services</t>
+  </si>
+  <si>
+    <t>Digital Media</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Taobao, Tmall</t>
+  </si>
+  <si>
+    <t>Ali Express, trendyol</t>
+  </si>
+  <si>
+    <t>Alibaba Cloud</t>
+  </si>
+  <si>
+    <t>Cai Niao</t>
+  </si>
+  <si>
+    <t>Ele me, Amap</t>
+  </si>
+  <si>
+    <t>Youku, Damai</t>
+  </si>
+  <si>
+    <t>Ding Talk, Freeshipio</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>E-commerce</t>
+  </si>
+  <si>
+    <t>AI and Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taobao and Tmall </t>
+  </si>
+  <si>
+    <t>International Digital Commerce</t>
+  </si>
+  <si>
+    <t>Eliminations</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost of Revenue</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Sales and Marketing</t>
+  </si>
+  <si>
+    <t>General and Admin</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>Impairments and other</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Tax Expense</t>
+  </si>
+  <si>
+    <t>Minorities and Subsidaries</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>EV/EBIT</t>
+  </si>
+  <si>
+    <t>Taobao &amp; Tmall Growth</t>
+  </si>
+  <si>
+    <t>International Growth</t>
+  </si>
+  <si>
+    <t>Cloud Growth</t>
+  </si>
+  <si>
+    <t>Logistics Growth</t>
+  </si>
+  <si>
+    <t>Local Services Growth</t>
+  </si>
+  <si>
+    <t>Digital Media Growth</t>
+  </si>
+  <si>
+    <t>Others Growth</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +309,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -125,12 +342,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -138,10 +473,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,116 +829,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61689B9D-AECD-4525-8AC9-0A6E41444C30}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>116.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+      <c r="J2">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
-        <f>+G2*G10</f>
-        <v>109.69799999999999</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <f>+J2*J10</f>
+        <v>108.758</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
-        <v>18586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="19">
+        <v>18791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
-        <f>+G3*G4</f>
-        <v>2038847.0279999999</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+      <c r="J5" s="2">
+        <f>+J3*J4</f>
+        <v>2043671.578</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2">
-        <f>162784+236949</f>
-        <v>399733</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+      <c r="J6" s="2">
+        <f>145487+228826</f>
+        <v>374313</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="I7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2">
-        <f>21453+50961+123070+36044</f>
-        <v>231528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+      <c r="J7" s="2">
+        <f>22562+49909+122398</f>
+        <v>194869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2">
-        <f>+G5-G6+G7</f>
-        <v>1870642.0279999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="J8" s="2">
+        <f>+J5-J6+J7</f>
+        <v>1864227.578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>0.94</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="22">
+        <f>+J5/Model!Q26</f>
+        <v>15.784904441183286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="22">
+        <f>+J8/Model!Q19</f>
+        <v>13.230386274440226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="2">
         <v>194320</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -591,4 +1061,6951 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD53C-DF31-43FF-9A0A-7B6CC2D2F3AA}">
+  <dimension ref="A1:AI187"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19">
+        <v>413206</v>
+      </c>
+      <c r="P3" s="19">
+        <v>434893</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>449827</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19">
+        <v>70506</v>
+      </c>
+      <c r="P4" s="19">
+        <v>102598</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>132300</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19">
+        <v>103497</v>
+      </c>
+      <c r="P5" s="19">
+        <v>106374</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>118028</v>
+      </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19">
+        <v>77512</v>
+      </c>
+      <c r="P6" s="19">
+        <v>99020</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>101272</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19">
+        <v>67076</v>
+      </c>
+      <c r="P7" s="19">
+        <v>59802</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>67076</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19">
+        <v>18444</v>
+      </c>
+      <c r="P8" s="19">
+        <v>21145</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>22267</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19">
+        <v>197115</v>
+      </c>
+      <c r="P9" s="19">
+        <v>192331</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>206269</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19">
+        <f>866-62708</f>
+        <v>-61842</v>
+      </c>
+      <c r="P10" s="19">
+        <f>1297-76292</f>
+        <v>-74995</v>
+      </c>
+      <c r="Q10" s="19">
+        <f>1924-102616</f>
+        <v>-100692</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20">
+        <v>868687</v>
+      </c>
+      <c r="P11" s="20">
+        <v>941168</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>996347</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19">
+        <v>549695</v>
+      </c>
+      <c r="P12" s="19">
+        <v>586323</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>598285</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19">
+        <f t="shared" ref="O13:P13" si="0">+O11-O12</f>
+        <v>318992</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="0"/>
+        <v>354845</v>
+      </c>
+      <c r="Q13" s="19">
+        <f>+Q11-Q12</f>
+        <v>398062</v>
+      </c>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19">
+        <v>56744</v>
+      </c>
+      <c r="P14" s="19">
+        <v>52256</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>57151</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19">
+        <v>103496</v>
+      </c>
+      <c r="P15" s="19">
+        <v>115141</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>144021</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19">
+        <v>42183</v>
+      </c>
+      <c r="P16" s="19">
+        <v>41985</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>44239</v>
+      </c>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19">
+        <v>13504</v>
+      </c>
+      <c r="P17" s="19">
+        <v>21592</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>6336</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19">
+        <v>2714</v>
+      </c>
+      <c r="P18" s="19">
+        <v>10521</v>
+      </c>
+      <c r="Q18" s="19">
+        <f>6171-761</f>
+        <v>5410</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19">
+        <f t="shared" ref="O19:P19" si="1">+O13-SUM(O14:O18)</f>
+        <v>100351</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="1"/>
+        <v>113350</v>
+      </c>
+      <c r="Q19" s="19">
+        <f>+Q13-SUM(Q14:Q18)</f>
+        <v>140905</v>
+      </c>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19">
+        <v>-11071</v>
+      </c>
+      <c r="P20" s="19">
+        <v>-9964</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>20759</v>
+      </c>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19">
+        <v>5918</v>
+      </c>
+      <c r="P21" s="19">
+        <v>7947</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>9596</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19">
+        <v>5823</v>
+      </c>
+      <c r="P22" s="19">
+        <v>6157</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>3387</v>
+      </c>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19">
+        <f t="shared" ref="O23:P23" si="2">+O19+O20-O21+O22</f>
+        <v>89185</v>
+      </c>
+      <c r="P23" s="19">
+        <f t="shared" si="2"/>
+        <v>101596</v>
+      </c>
+      <c r="Q23" s="19">
+        <f>+Q19+Q20-Q21+Q22</f>
+        <v>155455</v>
+      </c>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19">
+        <v>15549</v>
+      </c>
+      <c r="P24" s="19">
+        <v>22529</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>35445</v>
+      </c>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19">
+        <f>-8063+7210-274</f>
+        <v>-1127</v>
+      </c>
+      <c r="P25" s="19">
+        <f>-7735+8677-268</f>
+        <v>674</v>
+      </c>
+      <c r="Q25" s="19">
+        <f>5966+4133-639</f>
+        <v>9460</v>
+      </c>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19">
+        <f t="shared" ref="O26:P26" si="3">+O23-O24+O25</f>
+        <v>72509</v>
+      </c>
+      <c r="P26" s="19">
+        <f t="shared" si="3"/>
+        <v>79741</v>
+      </c>
+      <c r="Q26" s="19">
+        <f>+Q23-Q24+Q25</f>
+        <v>129470</v>
+      </c>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="21" t="e">
+        <f t="shared" ref="L28" si="4">+L26/L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="21" t="e">
+        <f t="shared" ref="M28" si="5">+M26/M29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="21" t="e">
+        <f t="shared" ref="N28" si="6">+N26/N29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" ref="O28:P28" si="7">+O26/O29</f>
+        <v>3.456101048617731</v>
+      </c>
+      <c r="P28" s="21">
+        <f t="shared" si="7"/>
+        <v>3.951095035179863</v>
+      </c>
+      <c r="Q28" s="21">
+        <f>+Q26/Q29</f>
+        <v>6.8900005321696556</v>
+      </c>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19">
+        <v>20980</v>
+      </c>
+      <c r="P29" s="19">
+        <v>20182</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>18791</v>
+      </c>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="23" t="e">
+        <f t="shared" ref="O31:Q31" si="8">+O3/N3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="23">
+        <f t="shared" si="8"/>
+        <v>5.2484717066063835E-2</v>
+      </c>
+      <c r="Q31" s="23">
+        <f>+Q3/P3-1</f>
+        <v>3.4339481205721833E-2</v>
+      </c>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="23" t="e">
+        <f t="shared" ref="O32:Q38" si="9">+O4/N4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="23">
+        <f t="shared" si="9"/>
+        <v>0.45516693614727832</v>
+      </c>
+      <c r="Q32" s="23">
+        <f t="shared" si="9"/>
+        <v>0.28949882063977861</v>
+      </c>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="23" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" s="23">
+        <f t="shared" si="9"/>
+        <v>2.7797907185715509E-2</v>
+      </c>
+      <c r="Q33" s="23">
+        <f t="shared" si="9"/>
+        <v>0.10955684659785292</v>
+      </c>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="23" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" s="23">
+        <f t="shared" si="9"/>
+        <v>0.27747961605944882</v>
+      </c>
+      <c r="Q34" s="23">
+        <f t="shared" si="9"/>
+        <v>2.2742880226216844E-2</v>
+      </c>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="23" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" s="23">
+        <f t="shared" si="9"/>
+        <v>-0.1084441529011867</v>
+      </c>
+      <c r="Q35" s="23">
+        <f t="shared" si="9"/>
+        <v>0.12163472793552055</v>
+      </c>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="23" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" s="23">
+        <f t="shared" si="9"/>
+        <v>0.14644328779006721</v>
+      </c>
+      <c r="Q36" s="23">
+        <f t="shared" si="9"/>
+        <v>5.3062189642941515E-2</v>
+      </c>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="23" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="23">
+        <f t="shared" si="9"/>
+        <v>-2.4270096136773001E-2</v>
+      </c>
+      <c r="Q37" s="23">
+        <f t="shared" si="9"/>
+        <v>7.2468816779406309E-2</v>
+      </c>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="24" t="e">
+        <f t="shared" ref="O38:Q38" si="10">+O11/N11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" s="24">
+        <f t="shared" si="10"/>
+        <v>8.3437417619925291E-2</v>
+      </c>
+      <c r="Q38" s="24">
+        <f>+Q11/P11-1</f>
+        <v>5.8628215153936347E-2</v>
+      </c>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="23">
+        <f t="shared" ref="O39:Q39" si="11">+O13/O11</f>
+        <v>0.36721166542149242</v>
+      </c>
+      <c r="P39" s="23">
+        <f t="shared" si="11"/>
+        <v>0.37702620573585161</v>
+      </c>
+      <c r="Q39" s="23">
+        <f>+Q13/Q11</f>
+        <v>0.39952145186365795</v>
+      </c>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="23">
+        <f t="shared" ref="O40:Q40" si="12">+O19/O11</f>
+        <v>0.1155203197469284</v>
+      </c>
+      <c r="P40" s="23">
+        <f t="shared" si="12"/>
+        <v>0.12043545891913027</v>
+      </c>
+      <c r="Q40" s="23">
+        <f>+Q19/Q11</f>
+        <v>0.14142161315284735</v>
+      </c>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="23">
+        <f t="shared" ref="O41:Q41" si="13">+O24/O23</f>
+        <v>0.17434546168077591</v>
+      </c>
+      <c r="P41" s="23">
+        <f t="shared" si="13"/>
+        <v>0.22175085633292649</v>
+      </c>
+      <c r="Q41" s="23">
+        <f>+Q24/Q23</f>
+        <v>0.22800810523945836</v>
+      </c>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="19"/>
+    </row>
+    <row r="49" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="19"/>
+      <c r="AG49" s="19"/>
+      <c r="AH49" s="19"/>
+      <c r="AI49" s="19"/>
+    </row>
+    <row r="50" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="19"/>
+    </row>
+    <row r="51" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="19"/>
+    </row>
+    <row r="52" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+    </row>
+    <row r="53" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19"/>
+    </row>
+    <row r="54" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+    </row>
+    <row r="55" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
+      <c r="AF55" s="19"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="19"/>
+      <c r="AI55" s="19"/>
+    </row>
+    <row r="56" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+    </row>
+    <row r="57" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="19"/>
+      <c r="AG57" s="19"/>
+      <c r="AH57" s="19"/>
+      <c r="AI57" s="19"/>
+    </row>
+    <row r="58" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
+      <c r="AF58" s="19"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="19"/>
+      <c r="AI58" s="19"/>
+    </row>
+    <row r="59" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="19"/>
+    </row>
+    <row r="60" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="19"/>
+    </row>
+    <row r="61" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
+      <c r="AG61" s="19"/>
+      <c r="AH61" s="19"/>
+      <c r="AI61" s="19"/>
+    </row>
+    <row r="62" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="19"/>
+      <c r="AF62" s="19"/>
+      <c r="AG62" s="19"/>
+      <c r="AH62" s="19"/>
+      <c r="AI62" s="19"/>
+    </row>
+    <row r="63" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+    </row>
+    <row r="64" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="19"/>
+      <c r="AB64" s="19"/>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="19"/>
+      <c r="AE64" s="19"/>
+      <c r="AF64" s="19"/>
+      <c r="AG64" s="19"/>
+      <c r="AH64" s="19"/>
+      <c r="AI64" s="19"/>
+    </row>
+    <row r="65" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+      <c r="Z65" s="19"/>
+      <c r="AA65" s="19"/>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="19"/>
+      <c r="AF65" s="19"/>
+      <c r="AG65" s="19"/>
+      <c r="AH65" s="19"/>
+      <c r="AI65" s="19"/>
+    </row>
+    <row r="66" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+      <c r="AF66" s="19"/>
+      <c r="AG66" s="19"/>
+      <c r="AH66" s="19"/>
+      <c r="AI66" s="19"/>
+    </row>
+    <row r="67" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="19"/>
+      <c r="AF67" s="19"/>
+      <c r="AG67" s="19"/>
+      <c r="AH67" s="19"/>
+      <c r="AI67" s="19"/>
+    </row>
+    <row r="68" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+      <c r="AF68" s="19"/>
+      <c r="AG68" s="19"/>
+      <c r="AH68" s="19"/>
+      <c r="AI68" s="19"/>
+    </row>
+    <row r="69" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
+      <c r="AG69" s="19"/>
+      <c r="AH69" s="19"/>
+      <c r="AI69" s="19"/>
+    </row>
+    <row r="70" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="19"/>
+      <c r="AE70" s="19"/>
+      <c r="AF70" s="19"/>
+      <c r="AG70" s="19"/>
+      <c r="AH70" s="19"/>
+      <c r="AI70" s="19"/>
+    </row>
+    <row r="71" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="19"/>
+      <c r="AD71" s="19"/>
+      <c r="AE71" s="19"/>
+      <c r="AF71" s="19"/>
+      <c r="AG71" s="19"/>
+      <c r="AH71" s="19"/>
+      <c r="AI71" s="19"/>
+    </row>
+    <row r="72" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="19"/>
+      <c r="AI72" s="19"/>
+    </row>
+    <row r="73" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="19"/>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="19"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="19"/>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="19"/>
+      <c r="AI73" s="19"/>
+    </row>
+    <row r="74" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="19"/>
+      <c r="AC74" s="19"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+      <c r="AF74" s="19"/>
+      <c r="AG74" s="19"/>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="19"/>
+    </row>
+    <row r="75" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="19"/>
+      <c r="AB75" s="19"/>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="19"/>
+      <c r="AF75" s="19"/>
+      <c r="AG75" s="19"/>
+      <c r="AH75" s="19"/>
+      <c r="AI75" s="19"/>
+    </row>
+    <row r="76" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="19"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="19"/>
+      <c r="AF76" s="19"/>
+      <c r="AG76" s="19"/>
+      <c r="AH76" s="19"/>
+      <c r="AI76" s="19"/>
+    </row>
+    <row r="77" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19"/>
+      <c r="AF77" s="19"/>
+      <c r="AG77" s="19"/>
+      <c r="AH77" s="19"/>
+      <c r="AI77" s="19"/>
+    </row>
+    <row r="78" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="19"/>
+      <c r="W78" s="19"/>
+      <c r="X78" s="19"/>
+      <c r="Y78" s="19"/>
+      <c r="Z78" s="19"/>
+      <c r="AA78" s="19"/>
+      <c r="AB78" s="19"/>
+      <c r="AC78" s="19"/>
+      <c r="AD78" s="19"/>
+      <c r="AE78" s="19"/>
+      <c r="AF78" s="19"/>
+      <c r="AG78" s="19"/>
+      <c r="AH78" s="19"/>
+      <c r="AI78" s="19"/>
+    </row>
+    <row r="79" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="19"/>
+      <c r="X79" s="19"/>
+      <c r="Y79" s="19"/>
+      <c r="Z79" s="19"/>
+      <c r="AA79" s="19"/>
+      <c r="AB79" s="19"/>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="19"/>
+      <c r="AE79" s="19"/>
+      <c r="AF79" s="19"/>
+      <c r="AG79" s="19"/>
+      <c r="AH79" s="19"/>
+      <c r="AI79" s="19"/>
+    </row>
+    <row r="80" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="19"/>
+      <c r="W80" s="19"/>
+      <c r="X80" s="19"/>
+      <c r="Y80" s="19"/>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="19"/>
+      <c r="AB80" s="19"/>
+      <c r="AC80" s="19"/>
+      <c r="AD80" s="19"/>
+      <c r="AE80" s="19"/>
+      <c r="AF80" s="19"/>
+      <c r="AG80" s="19"/>
+      <c r="AH80" s="19"/>
+      <c r="AI80" s="19"/>
+    </row>
+    <row r="81" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="19"/>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="19"/>
+      <c r="AD81" s="19"/>
+      <c r="AE81" s="19"/>
+      <c r="AF81" s="19"/>
+      <c r="AG81" s="19"/>
+      <c r="AH81" s="19"/>
+      <c r="AI81" s="19"/>
+    </row>
+    <row r="82" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="19"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="19"/>
+      <c r="AE82" s="19"/>
+      <c r="AF82" s="19"/>
+      <c r="AG82" s="19"/>
+      <c r="AH82" s="19"/>
+      <c r="AI82" s="19"/>
+    </row>
+    <row r="83" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="19"/>
+      <c r="AB83" s="19"/>
+      <c r="AC83" s="19"/>
+      <c r="AD83" s="19"/>
+      <c r="AE83" s="19"/>
+      <c r="AF83" s="19"/>
+      <c r="AG83" s="19"/>
+      <c r="AH83" s="19"/>
+      <c r="AI83" s="19"/>
+    </row>
+    <row r="84" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="19"/>
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="19"/>
+      <c r="AD84" s="19"/>
+      <c r="AE84" s="19"/>
+      <c r="AF84" s="19"/>
+      <c r="AG84" s="19"/>
+      <c r="AH84" s="19"/>
+      <c r="AI84" s="19"/>
+    </row>
+    <row r="85" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="19"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="19"/>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="19"/>
+      <c r="AE85" s="19"/>
+      <c r="AF85" s="19"/>
+      <c r="AG85" s="19"/>
+      <c r="AH85" s="19"/>
+      <c r="AI85" s="19"/>
+    </row>
+    <row r="86" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="19"/>
+      <c r="AF86" s="19"/>
+      <c r="AG86" s="19"/>
+      <c r="AH86" s="19"/>
+      <c r="AI86" s="19"/>
+    </row>
+    <row r="87" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="19"/>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="19"/>
+      <c r="AD87" s="19"/>
+      <c r="AE87" s="19"/>
+      <c r="AF87" s="19"/>
+      <c r="AG87" s="19"/>
+      <c r="AH87" s="19"/>
+      <c r="AI87" s="19"/>
+    </row>
+    <row r="88" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="19"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="19"/>
+      <c r="AD88" s="19"/>
+      <c r="AE88" s="19"/>
+      <c r="AF88" s="19"/>
+      <c r="AG88" s="19"/>
+      <c r="AH88" s="19"/>
+      <c r="AI88" s="19"/>
+    </row>
+    <row r="89" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="19"/>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="19"/>
+      <c r="AD89" s="19"/>
+      <c r="AE89" s="19"/>
+      <c r="AF89" s="19"/>
+      <c r="AG89" s="19"/>
+      <c r="AH89" s="19"/>
+      <c r="AI89" s="19"/>
+    </row>
+    <row r="90" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
+      <c r="V90" s="19"/>
+      <c r="W90" s="19"/>
+      <c r="X90" s="19"/>
+      <c r="Y90" s="19"/>
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="19"/>
+      <c r="AB90" s="19"/>
+      <c r="AC90" s="19"/>
+      <c r="AD90" s="19"/>
+      <c r="AE90" s="19"/>
+      <c r="AF90" s="19"/>
+      <c r="AG90" s="19"/>
+      <c r="AH90" s="19"/>
+      <c r="AI90" s="19"/>
+    </row>
+    <row r="91" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="19"/>
+      <c r="V91" s="19"/>
+      <c r="W91" s="19"/>
+      <c r="X91" s="19"/>
+      <c r="Y91" s="19"/>
+      <c r="Z91" s="19"/>
+      <c r="AA91" s="19"/>
+      <c r="AB91" s="19"/>
+      <c r="AC91" s="19"/>
+      <c r="AD91" s="19"/>
+      <c r="AE91" s="19"/>
+      <c r="AF91" s="19"/>
+      <c r="AG91" s="19"/>
+      <c r="AH91" s="19"/>
+      <c r="AI91" s="19"/>
+    </row>
+    <row r="92" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="19"/>
+      <c r="V92" s="19"/>
+      <c r="W92" s="19"/>
+      <c r="X92" s="19"/>
+      <c r="Y92" s="19"/>
+      <c r="Z92" s="19"/>
+      <c r="AA92" s="19"/>
+      <c r="AB92" s="19"/>
+      <c r="AC92" s="19"/>
+      <c r="AD92" s="19"/>
+      <c r="AE92" s="19"/>
+      <c r="AF92" s="19"/>
+      <c r="AG92" s="19"/>
+      <c r="AH92" s="19"/>
+      <c r="AI92" s="19"/>
+    </row>
+    <row r="93" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="19"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="19"/>
+      <c r="X93" s="19"/>
+      <c r="Y93" s="19"/>
+      <c r="Z93" s="19"/>
+      <c r="AA93" s="19"/>
+      <c r="AB93" s="19"/>
+      <c r="AC93" s="19"/>
+      <c r="AD93" s="19"/>
+      <c r="AE93" s="19"/>
+      <c r="AF93" s="19"/>
+      <c r="AG93" s="19"/>
+      <c r="AH93" s="19"/>
+      <c r="AI93" s="19"/>
+    </row>
+    <row r="94" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="19"/>
+      <c r="X94" s="19"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="19"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="19"/>
+      <c r="AE94" s="19"/>
+      <c r="AF94" s="19"/>
+      <c r="AG94" s="19"/>
+      <c r="AH94" s="19"/>
+      <c r="AI94" s="19"/>
+    </row>
+    <row r="95" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="19"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="19"/>
+      <c r="X95" s="19"/>
+      <c r="Y95" s="19"/>
+      <c r="Z95" s="19"/>
+      <c r="AA95" s="19"/>
+      <c r="AB95" s="19"/>
+      <c r="AC95" s="19"/>
+      <c r="AD95" s="19"/>
+      <c r="AE95" s="19"/>
+      <c r="AF95" s="19"/>
+      <c r="AG95" s="19"/>
+      <c r="AH95" s="19"/>
+      <c r="AI95" s="19"/>
+    </row>
+    <row r="96" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19"/>
+      <c r="V96" s="19"/>
+      <c r="W96" s="19"/>
+      <c r="X96" s="19"/>
+      <c r="Y96" s="19"/>
+      <c r="Z96" s="19"/>
+      <c r="AA96" s="19"/>
+      <c r="AB96" s="19"/>
+      <c r="AC96" s="19"/>
+      <c r="AD96" s="19"/>
+      <c r="AE96" s="19"/>
+      <c r="AF96" s="19"/>
+      <c r="AG96" s="19"/>
+      <c r="AH96" s="19"/>
+      <c r="AI96" s="19"/>
+    </row>
+    <row r="97" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="19"/>
+      <c r="V97" s="19"/>
+      <c r="W97" s="19"/>
+      <c r="X97" s="19"/>
+      <c r="Y97" s="19"/>
+      <c r="Z97" s="19"/>
+      <c r="AA97" s="19"/>
+      <c r="AB97" s="19"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="19"/>
+      <c r="AE97" s="19"/>
+      <c r="AF97" s="19"/>
+      <c r="AG97" s="19"/>
+      <c r="AH97" s="19"/>
+      <c r="AI97" s="19"/>
+    </row>
+    <row r="98" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="19"/>
+      <c r="AB98" s="19"/>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="19"/>
+      <c r="AE98" s="19"/>
+      <c r="AF98" s="19"/>
+      <c r="AG98" s="19"/>
+      <c r="AH98" s="19"/>
+      <c r="AI98" s="19"/>
+    </row>
+    <row r="99" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="19"/>
+      <c r="X99" s="19"/>
+      <c r="Y99" s="19"/>
+      <c r="Z99" s="19"/>
+      <c r="AA99" s="19"/>
+      <c r="AB99" s="19"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="19"/>
+      <c r="AE99" s="19"/>
+      <c r="AF99" s="19"/>
+      <c r="AG99" s="19"/>
+      <c r="AH99" s="19"/>
+      <c r="AI99" s="19"/>
+    </row>
+    <row r="100" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="19"/>
+      <c r="Z100" s="19"/>
+      <c r="AA100" s="19"/>
+      <c r="AB100" s="19"/>
+      <c r="AC100" s="19"/>
+      <c r="AD100" s="19"/>
+      <c r="AE100" s="19"/>
+      <c r="AF100" s="19"/>
+      <c r="AG100" s="19"/>
+      <c r="AH100" s="19"/>
+      <c r="AI100" s="19"/>
+    </row>
+    <row r="101" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="19"/>
+      <c r="X101" s="19"/>
+      <c r="Y101" s="19"/>
+      <c r="Z101" s="19"/>
+      <c r="AA101" s="19"/>
+      <c r="AB101" s="19"/>
+      <c r="AC101" s="19"/>
+      <c r="AD101" s="19"/>
+      <c r="AE101" s="19"/>
+      <c r="AF101" s="19"/>
+      <c r="AG101" s="19"/>
+      <c r="AH101" s="19"/>
+      <c r="AI101" s="19"/>
+    </row>
+    <row r="102" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="19"/>
+      <c r="V102" s="19"/>
+      <c r="W102" s="19"/>
+      <c r="X102" s="19"/>
+      <c r="Y102" s="19"/>
+      <c r="Z102" s="19"/>
+      <c r="AA102" s="19"/>
+      <c r="AB102" s="19"/>
+      <c r="AC102" s="19"/>
+      <c r="AD102" s="19"/>
+      <c r="AE102" s="19"/>
+      <c r="AF102" s="19"/>
+      <c r="AG102" s="19"/>
+      <c r="AH102" s="19"/>
+      <c r="AI102" s="19"/>
+    </row>
+    <row r="103" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="19"/>
+      <c r="W103" s="19"/>
+      <c r="X103" s="19"/>
+      <c r="Y103" s="19"/>
+      <c r="Z103" s="19"/>
+      <c r="AA103" s="19"/>
+      <c r="AB103" s="19"/>
+      <c r="AC103" s="19"/>
+      <c r="AD103" s="19"/>
+      <c r="AE103" s="19"/>
+      <c r="AF103" s="19"/>
+      <c r="AG103" s="19"/>
+      <c r="AH103" s="19"/>
+      <c r="AI103" s="19"/>
+    </row>
+    <row r="104" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="19"/>
+      <c r="V104" s="19"/>
+      <c r="W104" s="19"/>
+      <c r="X104" s="19"/>
+      <c r="Y104" s="19"/>
+      <c r="Z104" s="19"/>
+      <c r="AA104" s="19"/>
+      <c r="AB104" s="19"/>
+      <c r="AC104" s="19"/>
+      <c r="AD104" s="19"/>
+      <c r="AE104" s="19"/>
+      <c r="AF104" s="19"/>
+      <c r="AG104" s="19"/>
+      <c r="AH104" s="19"/>
+      <c r="AI104" s="19"/>
+    </row>
+    <row r="105" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="19"/>
+      <c r="V105" s="19"/>
+      <c r="W105" s="19"/>
+      <c r="X105" s="19"/>
+      <c r="Y105" s="19"/>
+      <c r="Z105" s="19"/>
+      <c r="AA105" s="19"/>
+      <c r="AB105" s="19"/>
+      <c r="AC105" s="19"/>
+      <c r="AD105" s="19"/>
+      <c r="AE105" s="19"/>
+      <c r="AF105" s="19"/>
+      <c r="AG105" s="19"/>
+      <c r="AH105" s="19"/>
+      <c r="AI105" s="19"/>
+    </row>
+    <row r="106" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="19"/>
+      <c r="X106" s="19"/>
+      <c r="Y106" s="19"/>
+      <c r="Z106" s="19"/>
+      <c r="AA106" s="19"/>
+      <c r="AB106" s="19"/>
+      <c r="AC106" s="19"/>
+      <c r="AD106" s="19"/>
+      <c r="AE106" s="19"/>
+      <c r="AF106" s="19"/>
+      <c r="AG106" s="19"/>
+      <c r="AH106" s="19"/>
+      <c r="AI106" s="19"/>
+    </row>
+    <row r="107" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="19"/>
+      <c r="X107" s="19"/>
+      <c r="Y107" s="19"/>
+      <c r="Z107" s="19"/>
+      <c r="AA107" s="19"/>
+      <c r="AB107" s="19"/>
+      <c r="AC107" s="19"/>
+      <c r="AD107" s="19"/>
+      <c r="AE107" s="19"/>
+      <c r="AF107" s="19"/>
+      <c r="AG107" s="19"/>
+      <c r="AH107" s="19"/>
+      <c r="AI107" s="19"/>
+    </row>
+    <row r="108" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="19"/>
+      <c r="V108" s="19"/>
+      <c r="W108" s="19"/>
+      <c r="X108" s="19"/>
+      <c r="Y108" s="19"/>
+      <c r="Z108" s="19"/>
+      <c r="AA108" s="19"/>
+      <c r="AB108" s="19"/>
+      <c r="AC108" s="19"/>
+      <c r="AD108" s="19"/>
+      <c r="AE108" s="19"/>
+      <c r="AF108" s="19"/>
+      <c r="AG108" s="19"/>
+      <c r="AH108" s="19"/>
+      <c r="AI108" s="19"/>
+    </row>
+    <row r="109" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="19"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="19"/>
+      <c r="X109" s="19"/>
+      <c r="Y109" s="19"/>
+      <c r="Z109" s="19"/>
+      <c r="AA109" s="19"/>
+      <c r="AB109" s="19"/>
+      <c r="AC109" s="19"/>
+      <c r="AD109" s="19"/>
+      <c r="AE109" s="19"/>
+      <c r="AF109" s="19"/>
+      <c r="AG109" s="19"/>
+      <c r="AH109" s="19"/>
+      <c r="AI109" s="19"/>
+    </row>
+    <row r="110" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="19"/>
+      <c r="V110" s="19"/>
+      <c r="W110" s="19"/>
+      <c r="X110" s="19"/>
+      <c r="Y110" s="19"/>
+      <c r="Z110" s="19"/>
+      <c r="AA110" s="19"/>
+      <c r="AB110" s="19"/>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="19"/>
+      <c r="AE110" s="19"/>
+      <c r="AF110" s="19"/>
+      <c r="AG110" s="19"/>
+      <c r="AH110" s="19"/>
+      <c r="AI110" s="19"/>
+    </row>
+    <row r="111" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="19"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="19"/>
+      <c r="X111" s="19"/>
+      <c r="Y111" s="19"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="19"/>
+      <c r="AB111" s="19"/>
+      <c r="AC111" s="19"/>
+      <c r="AD111" s="19"/>
+      <c r="AE111" s="19"/>
+      <c r="AF111" s="19"/>
+      <c r="AG111" s="19"/>
+      <c r="AH111" s="19"/>
+      <c r="AI111" s="19"/>
+    </row>
+    <row r="112" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="19"/>
+      <c r="V112" s="19"/>
+      <c r="W112" s="19"/>
+      <c r="X112" s="19"/>
+      <c r="Y112" s="19"/>
+      <c r="Z112" s="19"/>
+      <c r="AA112" s="19"/>
+      <c r="AB112" s="19"/>
+      <c r="AC112" s="19"/>
+      <c r="AD112" s="19"/>
+      <c r="AE112" s="19"/>
+      <c r="AF112" s="19"/>
+      <c r="AG112" s="19"/>
+      <c r="AH112" s="19"/>
+      <c r="AI112" s="19"/>
+    </row>
+    <row r="113" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="19"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="19"/>
+      <c r="V113" s="19"/>
+      <c r="W113" s="19"/>
+      <c r="X113" s="19"/>
+      <c r="Y113" s="19"/>
+      <c r="Z113" s="19"/>
+      <c r="AA113" s="19"/>
+      <c r="AB113" s="19"/>
+      <c r="AC113" s="19"/>
+      <c r="AD113" s="19"/>
+      <c r="AE113" s="19"/>
+      <c r="AF113" s="19"/>
+      <c r="AG113" s="19"/>
+      <c r="AH113" s="19"/>
+      <c r="AI113" s="19"/>
+    </row>
+    <row r="114" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="19"/>
+      <c r="V114" s="19"/>
+      <c r="W114" s="19"/>
+      <c r="X114" s="19"/>
+      <c r="Y114" s="19"/>
+      <c r="Z114" s="19"/>
+      <c r="AA114" s="19"/>
+      <c r="AB114" s="19"/>
+      <c r="AC114" s="19"/>
+      <c r="AD114" s="19"/>
+      <c r="AE114" s="19"/>
+      <c r="AF114" s="19"/>
+      <c r="AG114" s="19"/>
+      <c r="AH114" s="19"/>
+      <c r="AI114" s="19"/>
+    </row>
+    <row r="115" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="19"/>
+      <c r="X115" s="19"/>
+      <c r="Y115" s="19"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="19"/>
+      <c r="AB115" s="19"/>
+      <c r="AC115" s="19"/>
+      <c r="AD115" s="19"/>
+      <c r="AE115" s="19"/>
+      <c r="AF115" s="19"/>
+      <c r="AG115" s="19"/>
+      <c r="AH115" s="19"/>
+      <c r="AI115" s="19"/>
+    </row>
+    <row r="116" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
+      <c r="T116" s="19"/>
+      <c r="U116" s="19"/>
+      <c r="V116" s="19"/>
+      <c r="W116" s="19"/>
+      <c r="X116" s="19"/>
+      <c r="Y116" s="19"/>
+      <c r="Z116" s="19"/>
+      <c r="AA116" s="19"/>
+      <c r="AB116" s="19"/>
+      <c r="AC116" s="19"/>
+      <c r="AD116" s="19"/>
+      <c r="AE116" s="19"/>
+      <c r="AF116" s="19"/>
+      <c r="AG116" s="19"/>
+      <c r="AH116" s="19"/>
+      <c r="AI116" s="19"/>
+    </row>
+    <row r="117" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="T117" s="19"/>
+      <c r="U117" s="19"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="19"/>
+      <c r="X117" s="19"/>
+      <c r="Y117" s="19"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="19"/>
+      <c r="AB117" s="19"/>
+      <c r="AC117" s="19"/>
+      <c r="AD117" s="19"/>
+      <c r="AE117" s="19"/>
+      <c r="AF117" s="19"/>
+      <c r="AG117" s="19"/>
+      <c r="AH117" s="19"/>
+      <c r="AI117" s="19"/>
+    </row>
+    <row r="118" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="19"/>
+      <c r="T118" s="19"/>
+      <c r="U118" s="19"/>
+      <c r="V118" s="19"/>
+      <c r="W118" s="19"/>
+      <c r="X118" s="19"/>
+      <c r="Y118" s="19"/>
+      <c r="Z118" s="19"/>
+      <c r="AA118" s="19"/>
+      <c r="AB118" s="19"/>
+      <c r="AC118" s="19"/>
+      <c r="AD118" s="19"/>
+      <c r="AE118" s="19"/>
+      <c r="AF118" s="19"/>
+      <c r="AG118" s="19"/>
+      <c r="AH118" s="19"/>
+      <c r="AI118" s="19"/>
+    </row>
+    <row r="119" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
+      <c r="T119" s="19"/>
+      <c r="U119" s="19"/>
+      <c r="V119" s="19"/>
+      <c r="W119" s="19"/>
+      <c r="X119" s="19"/>
+      <c r="Y119" s="19"/>
+      <c r="Z119" s="19"/>
+      <c r="AA119" s="19"/>
+      <c r="AB119" s="19"/>
+      <c r="AC119" s="19"/>
+      <c r="AD119" s="19"/>
+      <c r="AE119" s="19"/>
+      <c r="AF119" s="19"/>
+      <c r="AG119" s="19"/>
+      <c r="AH119" s="19"/>
+      <c r="AI119" s="19"/>
+    </row>
+    <row r="120" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="19"/>
+      <c r="T120" s="19"/>
+      <c r="U120" s="19"/>
+      <c r="V120" s="19"/>
+      <c r="W120" s="19"/>
+      <c r="X120" s="19"/>
+      <c r="Y120" s="19"/>
+      <c r="Z120" s="19"/>
+      <c r="AA120" s="19"/>
+      <c r="AB120" s="19"/>
+      <c r="AC120" s="19"/>
+      <c r="AD120" s="19"/>
+      <c r="AE120" s="19"/>
+      <c r="AF120" s="19"/>
+      <c r="AG120" s="19"/>
+      <c r="AH120" s="19"/>
+      <c r="AI120" s="19"/>
+    </row>
+    <row r="121" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
+      <c r="S121" s="19"/>
+      <c r="T121" s="19"/>
+      <c r="U121" s="19"/>
+      <c r="V121" s="19"/>
+      <c r="W121" s="19"/>
+      <c r="X121" s="19"/>
+      <c r="Y121" s="19"/>
+      <c r="Z121" s="19"/>
+      <c r="AA121" s="19"/>
+      <c r="AB121" s="19"/>
+      <c r="AC121" s="19"/>
+      <c r="AD121" s="19"/>
+      <c r="AE121" s="19"/>
+      <c r="AF121" s="19"/>
+      <c r="AG121" s="19"/>
+      <c r="AH121" s="19"/>
+      <c r="AI121" s="19"/>
+    </row>
+    <row r="122" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
+      <c r="S122" s="19"/>
+      <c r="T122" s="19"/>
+      <c r="U122" s="19"/>
+      <c r="V122" s="19"/>
+      <c r="W122" s="19"/>
+      <c r="X122" s="19"/>
+      <c r="Y122" s="19"/>
+      <c r="Z122" s="19"/>
+      <c r="AA122" s="19"/>
+      <c r="AB122" s="19"/>
+      <c r="AC122" s="19"/>
+      <c r="AD122" s="19"/>
+      <c r="AE122" s="19"/>
+      <c r="AF122" s="19"/>
+      <c r="AG122" s="19"/>
+      <c r="AH122" s="19"/>
+      <c r="AI122" s="19"/>
+    </row>
+    <row r="123" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="19"/>
+      <c r="S123" s="19"/>
+      <c r="T123" s="19"/>
+      <c r="U123" s="19"/>
+      <c r="V123" s="19"/>
+      <c r="W123" s="19"/>
+      <c r="X123" s="19"/>
+      <c r="Y123" s="19"/>
+      <c r="Z123" s="19"/>
+      <c r="AA123" s="19"/>
+      <c r="AB123" s="19"/>
+      <c r="AC123" s="19"/>
+      <c r="AD123" s="19"/>
+      <c r="AE123" s="19"/>
+      <c r="AF123" s="19"/>
+      <c r="AG123" s="19"/>
+      <c r="AH123" s="19"/>
+      <c r="AI123" s="19"/>
+    </row>
+    <row r="124" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="19"/>
+      <c r="S124" s="19"/>
+      <c r="T124" s="19"/>
+      <c r="U124" s="19"/>
+      <c r="V124" s="19"/>
+      <c r="W124" s="19"/>
+      <c r="X124" s="19"/>
+      <c r="Y124" s="19"/>
+      <c r="Z124" s="19"/>
+      <c r="AA124" s="19"/>
+      <c r="AB124" s="19"/>
+      <c r="AC124" s="19"/>
+      <c r="AD124" s="19"/>
+      <c r="AE124" s="19"/>
+      <c r="AF124" s="19"/>
+      <c r="AG124" s="19"/>
+      <c r="AH124" s="19"/>
+      <c r="AI124" s="19"/>
+    </row>
+    <row r="125" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="19"/>
+      <c r="S125" s="19"/>
+      <c r="T125" s="19"/>
+      <c r="U125" s="19"/>
+      <c r="V125" s="19"/>
+      <c r="W125" s="19"/>
+      <c r="X125" s="19"/>
+      <c r="Y125" s="19"/>
+      <c r="Z125" s="19"/>
+      <c r="AA125" s="19"/>
+      <c r="AB125" s="19"/>
+      <c r="AC125" s="19"/>
+      <c r="AD125" s="19"/>
+      <c r="AE125" s="19"/>
+      <c r="AF125" s="19"/>
+      <c r="AG125" s="19"/>
+      <c r="AH125" s="19"/>
+      <c r="AI125" s="19"/>
+    </row>
+    <row r="126" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="19"/>
+      <c r="T126" s="19"/>
+      <c r="U126" s="19"/>
+      <c r="V126" s="19"/>
+      <c r="W126" s="19"/>
+      <c r="X126" s="19"/>
+      <c r="Y126" s="19"/>
+      <c r="Z126" s="19"/>
+      <c r="AA126" s="19"/>
+      <c r="AB126" s="19"/>
+      <c r="AC126" s="19"/>
+      <c r="AD126" s="19"/>
+      <c r="AE126" s="19"/>
+      <c r="AF126" s="19"/>
+      <c r="AG126" s="19"/>
+      <c r="AH126" s="19"/>
+      <c r="AI126" s="19"/>
+    </row>
+    <row r="127" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
+      <c r="S127" s="19"/>
+      <c r="T127" s="19"/>
+      <c r="U127" s="19"/>
+      <c r="V127" s="19"/>
+      <c r="W127" s="19"/>
+      <c r="X127" s="19"/>
+      <c r="Y127" s="19"/>
+      <c r="Z127" s="19"/>
+      <c r="AA127" s="19"/>
+      <c r="AB127" s="19"/>
+      <c r="AC127" s="19"/>
+      <c r="AD127" s="19"/>
+      <c r="AE127" s="19"/>
+      <c r="AF127" s="19"/>
+      <c r="AG127" s="19"/>
+      <c r="AH127" s="19"/>
+      <c r="AI127" s="19"/>
+    </row>
+    <row r="128" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="19"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="19"/>
+      <c r="S128" s="19"/>
+      <c r="T128" s="19"/>
+      <c r="U128" s="19"/>
+      <c r="V128" s="19"/>
+      <c r="W128" s="19"/>
+      <c r="X128" s="19"/>
+      <c r="Y128" s="19"/>
+      <c r="Z128" s="19"/>
+      <c r="AA128" s="19"/>
+      <c r="AB128" s="19"/>
+      <c r="AC128" s="19"/>
+      <c r="AD128" s="19"/>
+      <c r="AE128" s="19"/>
+      <c r="AF128" s="19"/>
+      <c r="AG128" s="19"/>
+      <c r="AH128" s="19"/>
+      <c r="AI128" s="19"/>
+    </row>
+    <row r="129" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
+      <c r="S129" s="19"/>
+      <c r="T129" s="19"/>
+      <c r="U129" s="19"/>
+      <c r="V129" s="19"/>
+      <c r="W129" s="19"/>
+      <c r="X129" s="19"/>
+      <c r="Y129" s="19"/>
+      <c r="Z129" s="19"/>
+      <c r="AA129" s="19"/>
+      <c r="AB129" s="19"/>
+      <c r="AC129" s="19"/>
+      <c r="AD129" s="19"/>
+      <c r="AE129" s="19"/>
+      <c r="AF129" s="19"/>
+      <c r="AG129" s="19"/>
+      <c r="AH129" s="19"/>
+      <c r="AI129" s="19"/>
+    </row>
+    <row r="130" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="19"/>
+      <c r="V130" s="19"/>
+      <c r="W130" s="19"/>
+      <c r="X130" s="19"/>
+      <c r="Y130" s="19"/>
+      <c r="Z130" s="19"/>
+      <c r="AA130" s="19"/>
+      <c r="AB130" s="19"/>
+      <c r="AC130" s="19"/>
+      <c r="AD130" s="19"/>
+      <c r="AE130" s="19"/>
+      <c r="AF130" s="19"/>
+      <c r="AG130" s="19"/>
+      <c r="AH130" s="19"/>
+      <c r="AI130" s="19"/>
+    </row>
+    <row r="131" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="N131" s="19"/>
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
+      <c r="S131" s="19"/>
+      <c r="T131" s="19"/>
+      <c r="U131" s="19"/>
+      <c r="V131" s="19"/>
+      <c r="W131" s="19"/>
+      <c r="X131" s="19"/>
+      <c r="Y131" s="19"/>
+      <c r="Z131" s="19"/>
+      <c r="AA131" s="19"/>
+      <c r="AB131" s="19"/>
+      <c r="AC131" s="19"/>
+      <c r="AD131" s="19"/>
+      <c r="AE131" s="19"/>
+      <c r="AF131" s="19"/>
+      <c r="AG131" s="19"/>
+      <c r="AH131" s="19"/>
+      <c r="AI131" s="19"/>
+    </row>
+    <row r="132" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
+      <c r="S132" s="19"/>
+      <c r="T132" s="19"/>
+      <c r="U132" s="19"/>
+      <c r="V132" s="19"/>
+      <c r="W132" s="19"/>
+      <c r="X132" s="19"/>
+      <c r="Y132" s="19"/>
+      <c r="Z132" s="19"/>
+      <c r="AA132" s="19"/>
+      <c r="AB132" s="19"/>
+      <c r="AC132" s="19"/>
+      <c r="AD132" s="19"/>
+      <c r="AE132" s="19"/>
+      <c r="AF132" s="19"/>
+      <c r="AG132" s="19"/>
+      <c r="AH132" s="19"/>
+      <c r="AI132" s="19"/>
+    </row>
+    <row r="133" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19"/>
+      <c r="W133" s="19"/>
+      <c r="X133" s="19"/>
+      <c r="Y133" s="19"/>
+      <c r="Z133" s="19"/>
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="19"/>
+      <c r="AC133" s="19"/>
+      <c r="AD133" s="19"/>
+      <c r="AE133" s="19"/>
+      <c r="AF133" s="19"/>
+      <c r="AG133" s="19"/>
+      <c r="AH133" s="19"/>
+      <c r="AI133" s="19"/>
+    </row>
+    <row r="134" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="19"/>
+      <c r="V134" s="19"/>
+      <c r="W134" s="19"/>
+      <c r="X134" s="19"/>
+      <c r="Y134" s="19"/>
+      <c r="Z134" s="19"/>
+      <c r="AA134" s="19"/>
+      <c r="AB134" s="19"/>
+      <c r="AC134" s="19"/>
+      <c r="AD134" s="19"/>
+      <c r="AE134" s="19"/>
+      <c r="AF134" s="19"/>
+      <c r="AG134" s="19"/>
+      <c r="AH134" s="19"/>
+      <c r="AI134" s="19"/>
+    </row>
+    <row r="135" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19"/>
+      <c r="T135" s="19"/>
+      <c r="U135" s="19"/>
+      <c r="V135" s="19"/>
+      <c r="W135" s="19"/>
+      <c r="X135" s="19"/>
+      <c r="Y135" s="19"/>
+      <c r="Z135" s="19"/>
+      <c r="AA135" s="19"/>
+      <c r="AB135" s="19"/>
+      <c r="AC135" s="19"/>
+      <c r="AD135" s="19"/>
+      <c r="AE135" s="19"/>
+      <c r="AF135" s="19"/>
+      <c r="AG135" s="19"/>
+      <c r="AH135" s="19"/>
+      <c r="AI135" s="19"/>
+    </row>
+    <row r="136" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="19"/>
+      <c r="U136" s="19"/>
+      <c r="V136" s="19"/>
+      <c r="W136" s="19"/>
+      <c r="X136" s="19"/>
+      <c r="Y136" s="19"/>
+      <c r="Z136" s="19"/>
+      <c r="AA136" s="19"/>
+      <c r="AB136" s="19"/>
+      <c r="AC136" s="19"/>
+      <c r="AD136" s="19"/>
+      <c r="AE136" s="19"/>
+      <c r="AF136" s="19"/>
+      <c r="AG136" s="19"/>
+      <c r="AH136" s="19"/>
+      <c r="AI136" s="19"/>
+    </row>
+    <row r="137" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="19"/>
+      <c r="U137" s="19"/>
+      <c r="V137" s="19"/>
+      <c r="W137" s="19"/>
+      <c r="X137" s="19"/>
+      <c r="Y137" s="19"/>
+      <c r="Z137" s="19"/>
+      <c r="AA137" s="19"/>
+      <c r="AB137" s="19"/>
+      <c r="AC137" s="19"/>
+      <c r="AD137" s="19"/>
+      <c r="AE137" s="19"/>
+      <c r="AF137" s="19"/>
+      <c r="AG137" s="19"/>
+      <c r="AH137" s="19"/>
+      <c r="AI137" s="19"/>
+    </row>
+    <row r="138" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
+      <c r="S138" s="19"/>
+      <c r="T138" s="19"/>
+      <c r="U138" s="19"/>
+      <c r="V138" s="19"/>
+      <c r="W138" s="19"/>
+      <c r="X138" s="19"/>
+      <c r="Y138" s="19"/>
+      <c r="Z138" s="19"/>
+      <c r="AA138" s="19"/>
+      <c r="AB138" s="19"/>
+      <c r="AC138" s="19"/>
+      <c r="AD138" s="19"/>
+      <c r="AE138" s="19"/>
+      <c r="AF138" s="19"/>
+      <c r="AG138" s="19"/>
+      <c r="AH138" s="19"/>
+      <c r="AI138" s="19"/>
+    </row>
+    <row r="139" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="19"/>
+      <c r="V139" s="19"/>
+      <c r="W139" s="19"/>
+      <c r="X139" s="19"/>
+      <c r="Y139" s="19"/>
+      <c r="Z139" s="19"/>
+      <c r="AA139" s="19"/>
+      <c r="AB139" s="19"/>
+      <c r="AC139" s="19"/>
+      <c r="AD139" s="19"/>
+      <c r="AE139" s="19"/>
+      <c r="AF139" s="19"/>
+      <c r="AG139" s="19"/>
+      <c r="AH139" s="19"/>
+      <c r="AI139" s="19"/>
+    </row>
+    <row r="140" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
+      <c r="S140" s="19"/>
+      <c r="T140" s="19"/>
+      <c r="U140" s="19"/>
+      <c r="V140" s="19"/>
+      <c r="W140" s="19"/>
+      <c r="X140" s="19"/>
+      <c r="Y140" s="19"/>
+      <c r="Z140" s="19"/>
+      <c r="AA140" s="19"/>
+      <c r="AB140" s="19"/>
+      <c r="AC140" s="19"/>
+      <c r="AD140" s="19"/>
+      <c r="AE140" s="19"/>
+      <c r="AF140" s="19"/>
+      <c r="AG140" s="19"/>
+      <c r="AH140" s="19"/>
+      <c r="AI140" s="19"/>
+    </row>
+    <row r="141" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
+      <c r="S141" s="19"/>
+      <c r="T141" s="19"/>
+      <c r="U141" s="19"/>
+      <c r="V141" s="19"/>
+      <c r="W141" s="19"/>
+      <c r="X141" s="19"/>
+      <c r="Y141" s="19"/>
+      <c r="Z141" s="19"/>
+      <c r="AA141" s="19"/>
+      <c r="AB141" s="19"/>
+      <c r="AC141" s="19"/>
+      <c r="AD141" s="19"/>
+      <c r="AE141" s="19"/>
+      <c r="AF141" s="19"/>
+      <c r="AG141" s="19"/>
+      <c r="AH141" s="19"/>
+      <c r="AI141" s="19"/>
+    </row>
+    <row r="142" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="19"/>
+      <c r="U142" s="19"/>
+      <c r="V142" s="19"/>
+      <c r="W142" s="19"/>
+      <c r="X142" s="19"/>
+      <c r="Y142" s="19"/>
+      <c r="Z142" s="19"/>
+      <c r="AA142" s="19"/>
+      <c r="AB142" s="19"/>
+      <c r="AC142" s="19"/>
+      <c r="AD142" s="19"/>
+      <c r="AE142" s="19"/>
+      <c r="AF142" s="19"/>
+      <c r="AG142" s="19"/>
+      <c r="AH142" s="19"/>
+      <c r="AI142" s="19"/>
+    </row>
+    <row r="143" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19"/>
+      <c r="N143" s="19"/>
+      <c r="O143" s="19"/>
+      <c r="P143" s="19"/>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="19"/>
+      <c r="S143" s="19"/>
+      <c r="T143" s="19"/>
+      <c r="U143" s="19"/>
+      <c r="V143" s="19"/>
+      <c r="W143" s="19"/>
+      <c r="X143" s="19"/>
+      <c r="Y143" s="19"/>
+      <c r="Z143" s="19"/>
+      <c r="AA143" s="19"/>
+      <c r="AB143" s="19"/>
+      <c r="AC143" s="19"/>
+      <c r="AD143" s="19"/>
+      <c r="AE143" s="19"/>
+      <c r="AF143" s="19"/>
+      <c r="AG143" s="19"/>
+      <c r="AH143" s="19"/>
+      <c r="AI143" s="19"/>
+    </row>
+    <row r="144" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19"/>
+      <c r="N144" s="19"/>
+      <c r="O144" s="19"/>
+      <c r="P144" s="19"/>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="19"/>
+      <c r="S144" s="19"/>
+      <c r="T144" s="19"/>
+      <c r="U144" s="19"/>
+      <c r="V144" s="19"/>
+      <c r="W144" s="19"/>
+      <c r="X144" s="19"/>
+      <c r="Y144" s="19"/>
+      <c r="Z144" s="19"/>
+      <c r="AA144" s="19"/>
+      <c r="AB144" s="19"/>
+      <c r="AC144" s="19"/>
+      <c r="AD144" s="19"/>
+      <c r="AE144" s="19"/>
+      <c r="AF144" s="19"/>
+      <c r="AG144" s="19"/>
+      <c r="AH144" s="19"/>
+      <c r="AI144" s="19"/>
+    </row>
+    <row r="145" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="19"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="19"/>
+      <c r="P145" s="19"/>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="19"/>
+      <c r="S145" s="19"/>
+      <c r="T145" s="19"/>
+      <c r="U145" s="19"/>
+      <c r="V145" s="19"/>
+      <c r="W145" s="19"/>
+      <c r="X145" s="19"/>
+      <c r="Y145" s="19"/>
+      <c r="Z145" s="19"/>
+      <c r="AA145" s="19"/>
+      <c r="AB145" s="19"/>
+      <c r="AC145" s="19"/>
+      <c r="AD145" s="19"/>
+      <c r="AE145" s="19"/>
+      <c r="AF145" s="19"/>
+      <c r="AG145" s="19"/>
+      <c r="AH145" s="19"/>
+      <c r="AI145" s="19"/>
+    </row>
+    <row r="146" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="19"/>
+      <c r="V146" s="19"/>
+      <c r="W146" s="19"/>
+      <c r="X146" s="19"/>
+      <c r="Y146" s="19"/>
+      <c r="Z146" s="19"/>
+      <c r="AA146" s="19"/>
+      <c r="AB146" s="19"/>
+      <c r="AC146" s="19"/>
+      <c r="AD146" s="19"/>
+      <c r="AE146" s="19"/>
+      <c r="AF146" s="19"/>
+      <c r="AG146" s="19"/>
+      <c r="AH146" s="19"/>
+      <c r="AI146" s="19"/>
+    </row>
+    <row r="147" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+      <c r="Z147" s="19"/>
+      <c r="AA147" s="19"/>
+      <c r="AB147" s="19"/>
+      <c r="AC147" s="19"/>
+      <c r="AD147" s="19"/>
+      <c r="AE147" s="19"/>
+      <c r="AF147" s="19"/>
+      <c r="AG147" s="19"/>
+      <c r="AH147" s="19"/>
+      <c r="AI147" s="19"/>
+    </row>
+    <row r="148" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
+      <c r="S148" s="19"/>
+      <c r="T148" s="19"/>
+      <c r="U148" s="19"/>
+      <c r="V148" s="19"/>
+      <c r="W148" s="19"/>
+      <c r="X148" s="19"/>
+      <c r="Y148" s="19"/>
+      <c r="Z148" s="19"/>
+      <c r="AA148" s="19"/>
+      <c r="AB148" s="19"/>
+      <c r="AC148" s="19"/>
+      <c r="AD148" s="19"/>
+      <c r="AE148" s="19"/>
+      <c r="AF148" s="19"/>
+      <c r="AG148" s="19"/>
+      <c r="AH148" s="19"/>
+      <c r="AI148" s="19"/>
+    </row>
+    <row r="149" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
+      <c r="S149" s="19"/>
+      <c r="T149" s="19"/>
+      <c r="U149" s="19"/>
+      <c r="V149" s="19"/>
+      <c r="W149" s="19"/>
+      <c r="X149" s="19"/>
+      <c r="Y149" s="19"/>
+      <c r="Z149" s="19"/>
+      <c r="AA149" s="19"/>
+      <c r="AB149" s="19"/>
+      <c r="AC149" s="19"/>
+      <c r="AD149" s="19"/>
+      <c r="AE149" s="19"/>
+      <c r="AF149" s="19"/>
+      <c r="AG149" s="19"/>
+      <c r="AH149" s="19"/>
+      <c r="AI149" s="19"/>
+    </row>
+    <row r="150" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="19"/>
+      <c r="P150" s="19"/>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="19"/>
+      <c r="S150" s="19"/>
+      <c r="T150" s="19"/>
+      <c r="U150" s="19"/>
+      <c r="V150" s="19"/>
+      <c r="W150" s="19"/>
+      <c r="X150" s="19"/>
+      <c r="Y150" s="19"/>
+      <c r="Z150" s="19"/>
+      <c r="AA150" s="19"/>
+      <c r="AB150" s="19"/>
+      <c r="AC150" s="19"/>
+      <c r="AD150" s="19"/>
+      <c r="AE150" s="19"/>
+      <c r="AF150" s="19"/>
+      <c r="AG150" s="19"/>
+      <c r="AH150" s="19"/>
+      <c r="AI150" s="19"/>
+    </row>
+    <row r="151" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19"/>
+      <c r="T151" s="19"/>
+      <c r="U151" s="19"/>
+      <c r="V151" s="19"/>
+      <c r="W151" s="19"/>
+      <c r="X151" s="19"/>
+      <c r="Y151" s="19"/>
+      <c r="Z151" s="19"/>
+      <c r="AA151" s="19"/>
+      <c r="AB151" s="19"/>
+      <c r="AC151" s="19"/>
+      <c r="AD151" s="19"/>
+      <c r="AE151" s="19"/>
+      <c r="AF151" s="19"/>
+      <c r="AG151" s="19"/>
+      <c r="AH151" s="19"/>
+      <c r="AI151" s="19"/>
+    </row>
+    <row r="152" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="19"/>
+      <c r="S152" s="19"/>
+      <c r="T152" s="19"/>
+      <c r="U152" s="19"/>
+      <c r="V152" s="19"/>
+      <c r="W152" s="19"/>
+      <c r="X152" s="19"/>
+      <c r="Y152" s="19"/>
+      <c r="Z152" s="19"/>
+      <c r="AA152" s="19"/>
+      <c r="AB152" s="19"/>
+      <c r="AC152" s="19"/>
+      <c r="AD152" s="19"/>
+      <c r="AE152" s="19"/>
+      <c r="AF152" s="19"/>
+      <c r="AG152" s="19"/>
+      <c r="AH152" s="19"/>
+      <c r="AI152" s="19"/>
+    </row>
+    <row r="153" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="19"/>
+      <c r="S153" s="19"/>
+      <c r="T153" s="19"/>
+      <c r="U153" s="19"/>
+      <c r="V153" s="19"/>
+      <c r="W153" s="19"/>
+      <c r="X153" s="19"/>
+      <c r="Y153" s="19"/>
+      <c r="Z153" s="19"/>
+      <c r="AA153" s="19"/>
+      <c r="AB153" s="19"/>
+      <c r="AC153" s="19"/>
+      <c r="AD153" s="19"/>
+      <c r="AE153" s="19"/>
+      <c r="AF153" s="19"/>
+      <c r="AG153" s="19"/>
+      <c r="AH153" s="19"/>
+      <c r="AI153" s="19"/>
+    </row>
+    <row r="154" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="19"/>
+      <c r="S154" s="19"/>
+      <c r="T154" s="19"/>
+      <c r="U154" s="19"/>
+      <c r="V154" s="19"/>
+      <c r="W154" s="19"/>
+      <c r="X154" s="19"/>
+      <c r="Y154" s="19"/>
+      <c r="Z154" s="19"/>
+      <c r="AA154" s="19"/>
+      <c r="AB154" s="19"/>
+      <c r="AC154" s="19"/>
+      <c r="AD154" s="19"/>
+      <c r="AE154" s="19"/>
+      <c r="AF154" s="19"/>
+      <c r="AG154" s="19"/>
+      <c r="AH154" s="19"/>
+      <c r="AI154" s="19"/>
+    </row>
+    <row r="155" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="19"/>
+      <c r="S155" s="19"/>
+      <c r="T155" s="19"/>
+      <c r="U155" s="19"/>
+      <c r="V155" s="19"/>
+      <c r="W155" s="19"/>
+      <c r="X155" s="19"/>
+      <c r="Y155" s="19"/>
+      <c r="Z155" s="19"/>
+      <c r="AA155" s="19"/>
+      <c r="AB155" s="19"/>
+      <c r="AC155" s="19"/>
+      <c r="AD155" s="19"/>
+      <c r="AE155" s="19"/>
+      <c r="AF155" s="19"/>
+      <c r="AG155" s="19"/>
+      <c r="AH155" s="19"/>
+      <c r="AI155" s="19"/>
+    </row>
+    <row r="156" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="19"/>
+      <c r="T156" s="19"/>
+      <c r="U156" s="19"/>
+      <c r="V156" s="19"/>
+      <c r="W156" s="19"/>
+      <c r="X156" s="19"/>
+      <c r="Y156" s="19"/>
+      <c r="Z156" s="19"/>
+      <c r="AA156" s="19"/>
+      <c r="AB156" s="19"/>
+      <c r="AC156" s="19"/>
+      <c r="AD156" s="19"/>
+      <c r="AE156" s="19"/>
+      <c r="AF156" s="19"/>
+      <c r="AG156" s="19"/>
+      <c r="AH156" s="19"/>
+      <c r="AI156" s="19"/>
+    </row>
+    <row r="157" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="19"/>
+      <c r="S157" s="19"/>
+      <c r="T157" s="19"/>
+      <c r="U157" s="19"/>
+      <c r="V157" s="19"/>
+      <c r="W157" s="19"/>
+      <c r="X157" s="19"/>
+      <c r="Y157" s="19"/>
+      <c r="Z157" s="19"/>
+      <c r="AA157" s="19"/>
+      <c r="AB157" s="19"/>
+      <c r="AC157" s="19"/>
+      <c r="AD157" s="19"/>
+      <c r="AE157" s="19"/>
+      <c r="AF157" s="19"/>
+      <c r="AG157" s="19"/>
+      <c r="AH157" s="19"/>
+      <c r="AI157" s="19"/>
+    </row>
+    <row r="158" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19"/>
+      <c r="S158" s="19"/>
+      <c r="T158" s="19"/>
+      <c r="U158" s="19"/>
+      <c r="V158" s="19"/>
+      <c r="W158" s="19"/>
+      <c r="X158" s="19"/>
+      <c r="Y158" s="19"/>
+      <c r="Z158" s="19"/>
+      <c r="AA158" s="19"/>
+      <c r="AB158" s="19"/>
+      <c r="AC158" s="19"/>
+      <c r="AD158" s="19"/>
+      <c r="AE158" s="19"/>
+      <c r="AF158" s="19"/>
+      <c r="AG158" s="19"/>
+      <c r="AH158" s="19"/>
+      <c r="AI158" s="19"/>
+    </row>
+    <row r="159" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="19"/>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="19"/>
+      <c r="S159" s="19"/>
+      <c r="T159" s="19"/>
+      <c r="U159" s="19"/>
+      <c r="V159" s="19"/>
+      <c r="W159" s="19"/>
+      <c r="X159" s="19"/>
+      <c r="Y159" s="19"/>
+      <c r="Z159" s="19"/>
+      <c r="AA159" s="19"/>
+      <c r="AB159" s="19"/>
+      <c r="AC159" s="19"/>
+      <c r="AD159" s="19"/>
+      <c r="AE159" s="19"/>
+      <c r="AF159" s="19"/>
+      <c r="AG159" s="19"/>
+      <c r="AH159" s="19"/>
+      <c r="AI159" s="19"/>
+    </row>
+    <row r="160" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19"/>
+      <c r="S160" s="19"/>
+      <c r="T160" s="19"/>
+      <c r="U160" s="19"/>
+      <c r="V160" s="19"/>
+      <c r="W160" s="19"/>
+      <c r="X160" s="19"/>
+      <c r="Y160" s="19"/>
+      <c r="Z160" s="19"/>
+      <c r="AA160" s="19"/>
+      <c r="AB160" s="19"/>
+      <c r="AC160" s="19"/>
+      <c r="AD160" s="19"/>
+      <c r="AE160" s="19"/>
+      <c r="AF160" s="19"/>
+      <c r="AG160" s="19"/>
+      <c r="AH160" s="19"/>
+      <c r="AI160" s="19"/>
+    </row>
+    <row r="161" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+      <c r="S161" s="19"/>
+      <c r="T161" s="19"/>
+      <c r="U161" s="19"/>
+      <c r="V161" s="19"/>
+      <c r="W161" s="19"/>
+      <c r="X161" s="19"/>
+      <c r="Y161" s="19"/>
+      <c r="Z161" s="19"/>
+      <c r="AA161" s="19"/>
+      <c r="AB161" s="19"/>
+      <c r="AC161" s="19"/>
+      <c r="AD161" s="19"/>
+      <c r="AE161" s="19"/>
+      <c r="AF161" s="19"/>
+      <c r="AG161" s="19"/>
+      <c r="AH161" s="19"/>
+      <c r="AI161" s="19"/>
+    </row>
+    <row r="162" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="19"/>
+      <c r="T162" s="19"/>
+      <c r="U162" s="19"/>
+      <c r="V162" s="19"/>
+      <c r="W162" s="19"/>
+      <c r="X162" s="19"/>
+      <c r="Y162" s="19"/>
+      <c r="Z162" s="19"/>
+      <c r="AA162" s="19"/>
+      <c r="AB162" s="19"/>
+      <c r="AC162" s="19"/>
+      <c r="AD162" s="19"/>
+      <c r="AE162" s="19"/>
+      <c r="AF162" s="19"/>
+      <c r="AG162" s="19"/>
+      <c r="AH162" s="19"/>
+      <c r="AI162" s="19"/>
+    </row>
+    <row r="163" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
+      <c r="S163" s="19"/>
+      <c r="T163" s="19"/>
+      <c r="U163" s="19"/>
+      <c r="V163" s="19"/>
+      <c r="W163" s="19"/>
+      <c r="X163" s="19"/>
+      <c r="Y163" s="19"/>
+      <c r="Z163" s="19"/>
+      <c r="AA163" s="19"/>
+      <c r="AB163" s="19"/>
+      <c r="AC163" s="19"/>
+      <c r="AD163" s="19"/>
+      <c r="AE163" s="19"/>
+      <c r="AF163" s="19"/>
+      <c r="AG163" s="19"/>
+      <c r="AH163" s="19"/>
+      <c r="AI163" s="19"/>
+    </row>
+    <row r="164" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="19"/>
+      <c r="S164" s="19"/>
+      <c r="T164" s="19"/>
+      <c r="U164" s="19"/>
+      <c r="V164" s="19"/>
+      <c r="W164" s="19"/>
+      <c r="X164" s="19"/>
+      <c r="Y164" s="19"/>
+      <c r="Z164" s="19"/>
+      <c r="AA164" s="19"/>
+      <c r="AB164" s="19"/>
+      <c r="AC164" s="19"/>
+      <c r="AD164" s="19"/>
+      <c r="AE164" s="19"/>
+      <c r="AF164" s="19"/>
+      <c r="AG164" s="19"/>
+      <c r="AH164" s="19"/>
+      <c r="AI164" s="19"/>
+    </row>
+    <row r="165" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="19"/>
+      <c r="U165" s="19"/>
+      <c r="V165" s="19"/>
+      <c r="W165" s="19"/>
+      <c r="X165" s="19"/>
+      <c r="Y165" s="19"/>
+      <c r="Z165" s="19"/>
+      <c r="AA165" s="19"/>
+      <c r="AB165" s="19"/>
+      <c r="AC165" s="19"/>
+      <c r="AD165" s="19"/>
+      <c r="AE165" s="19"/>
+      <c r="AF165" s="19"/>
+      <c r="AG165" s="19"/>
+      <c r="AH165" s="19"/>
+      <c r="AI165" s="19"/>
+    </row>
+    <row r="166" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+      <c r="V166" s="19"/>
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="19"/>
+      <c r="AA166" s="19"/>
+      <c r="AB166" s="19"/>
+      <c r="AC166" s="19"/>
+      <c r="AD166" s="19"/>
+      <c r="AE166" s="19"/>
+      <c r="AF166" s="19"/>
+      <c r="AG166" s="19"/>
+      <c r="AH166" s="19"/>
+      <c r="AI166" s="19"/>
+    </row>
+    <row r="167" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="19"/>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="19"/>
+      <c r="S167" s="19"/>
+      <c r="T167" s="19"/>
+      <c r="U167" s="19"/>
+      <c r="V167" s="19"/>
+      <c r="W167" s="19"/>
+      <c r="X167" s="19"/>
+      <c r="Y167" s="19"/>
+      <c r="Z167" s="19"/>
+      <c r="AA167" s="19"/>
+      <c r="AB167" s="19"/>
+      <c r="AC167" s="19"/>
+      <c r="AD167" s="19"/>
+      <c r="AE167" s="19"/>
+      <c r="AF167" s="19"/>
+      <c r="AG167" s="19"/>
+      <c r="AH167" s="19"/>
+      <c r="AI167" s="19"/>
+    </row>
+    <row r="168" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="19"/>
+      <c r="R168" s="19"/>
+      <c r="S168" s="19"/>
+      <c r="T168" s="19"/>
+      <c r="U168" s="19"/>
+      <c r="V168" s="19"/>
+      <c r="W168" s="19"/>
+      <c r="X168" s="19"/>
+      <c r="Y168" s="19"/>
+      <c r="Z168" s="19"/>
+      <c r="AA168" s="19"/>
+      <c r="AB168" s="19"/>
+      <c r="AC168" s="19"/>
+      <c r="AD168" s="19"/>
+      <c r="AE168" s="19"/>
+      <c r="AF168" s="19"/>
+      <c r="AG168" s="19"/>
+      <c r="AH168" s="19"/>
+      <c r="AI168" s="19"/>
+    </row>
+    <row r="169" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="19"/>
+      <c r="Q169" s="19"/>
+      <c r="R169" s="19"/>
+      <c r="S169" s="19"/>
+      <c r="T169" s="19"/>
+      <c r="U169" s="19"/>
+      <c r="V169" s="19"/>
+      <c r="W169" s="19"/>
+      <c r="X169" s="19"/>
+      <c r="Y169" s="19"/>
+      <c r="Z169" s="19"/>
+      <c r="AA169" s="19"/>
+      <c r="AB169" s="19"/>
+      <c r="AC169" s="19"/>
+      <c r="AD169" s="19"/>
+      <c r="AE169" s="19"/>
+      <c r="AF169" s="19"/>
+      <c r="AG169" s="19"/>
+      <c r="AH169" s="19"/>
+      <c r="AI169" s="19"/>
+    </row>
+    <row r="170" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
+      <c r="L170" s="19"/>
+      <c r="M170" s="19"/>
+      <c r="N170" s="19"/>
+      <c r="O170" s="19"/>
+      <c r="P170" s="19"/>
+      <c r="Q170" s="19"/>
+      <c r="R170" s="19"/>
+      <c r="S170" s="19"/>
+      <c r="T170" s="19"/>
+      <c r="U170" s="19"/>
+      <c r="V170" s="19"/>
+      <c r="W170" s="19"/>
+      <c r="X170" s="19"/>
+      <c r="Y170" s="19"/>
+      <c r="Z170" s="19"/>
+      <c r="AA170" s="19"/>
+      <c r="AB170" s="19"/>
+      <c r="AC170" s="19"/>
+      <c r="AD170" s="19"/>
+      <c r="AE170" s="19"/>
+      <c r="AF170" s="19"/>
+      <c r="AG170" s="19"/>
+      <c r="AH170" s="19"/>
+      <c r="AI170" s="19"/>
+    </row>
+    <row r="171" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="19"/>
+      <c r="Q171" s="19"/>
+      <c r="R171" s="19"/>
+      <c r="S171" s="19"/>
+      <c r="T171" s="19"/>
+      <c r="U171" s="19"/>
+      <c r="V171" s="19"/>
+      <c r="W171" s="19"/>
+      <c r="X171" s="19"/>
+      <c r="Y171" s="19"/>
+      <c r="Z171" s="19"/>
+      <c r="AA171" s="19"/>
+      <c r="AB171" s="19"/>
+      <c r="AC171" s="19"/>
+      <c r="AD171" s="19"/>
+      <c r="AE171" s="19"/>
+      <c r="AF171" s="19"/>
+      <c r="AG171" s="19"/>
+      <c r="AH171" s="19"/>
+      <c r="AI171" s="19"/>
+    </row>
+    <row r="172" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="19"/>
+      <c r="L172" s="19"/>
+      <c r="M172" s="19"/>
+      <c r="N172" s="19"/>
+      <c r="O172" s="19"/>
+      <c r="P172" s="19"/>
+      <c r="Q172" s="19"/>
+      <c r="R172" s="19"/>
+      <c r="S172" s="19"/>
+      <c r="T172" s="19"/>
+      <c r="U172" s="19"/>
+      <c r="V172" s="19"/>
+      <c r="W172" s="19"/>
+      <c r="X172" s="19"/>
+      <c r="Y172" s="19"/>
+      <c r="Z172" s="19"/>
+      <c r="AA172" s="19"/>
+      <c r="AB172" s="19"/>
+      <c r="AC172" s="19"/>
+      <c r="AD172" s="19"/>
+      <c r="AE172" s="19"/>
+      <c r="AF172" s="19"/>
+      <c r="AG172" s="19"/>
+      <c r="AH172" s="19"/>
+      <c r="AI172" s="19"/>
+    </row>
+    <row r="173" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="19"/>
+      <c r="Q173" s="19"/>
+      <c r="R173" s="19"/>
+      <c r="S173" s="19"/>
+      <c r="T173" s="19"/>
+      <c r="U173" s="19"/>
+      <c r="V173" s="19"/>
+      <c r="W173" s="19"/>
+      <c r="X173" s="19"/>
+      <c r="Y173" s="19"/>
+      <c r="Z173" s="19"/>
+      <c r="AA173" s="19"/>
+      <c r="AB173" s="19"/>
+      <c r="AC173" s="19"/>
+      <c r="AD173" s="19"/>
+      <c r="AE173" s="19"/>
+      <c r="AF173" s="19"/>
+      <c r="AG173" s="19"/>
+      <c r="AH173" s="19"/>
+      <c r="AI173" s="19"/>
+    </row>
+    <row r="174" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="19"/>
+      <c r="S174" s="19"/>
+      <c r="T174" s="19"/>
+      <c r="U174" s="19"/>
+      <c r="V174" s="19"/>
+      <c r="W174" s="19"/>
+      <c r="X174" s="19"/>
+      <c r="Y174" s="19"/>
+      <c r="Z174" s="19"/>
+      <c r="AA174" s="19"/>
+      <c r="AB174" s="19"/>
+      <c r="AC174" s="19"/>
+      <c r="AD174" s="19"/>
+      <c r="AE174" s="19"/>
+      <c r="AF174" s="19"/>
+      <c r="AG174" s="19"/>
+      <c r="AH174" s="19"/>
+      <c r="AI174" s="19"/>
+    </row>
+    <row r="175" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="19"/>
+      <c r="L175" s="19"/>
+      <c r="M175" s="19"/>
+      <c r="N175" s="19"/>
+      <c r="O175" s="19"/>
+      <c r="P175" s="19"/>
+      <c r="Q175" s="19"/>
+      <c r="R175" s="19"/>
+      <c r="S175" s="19"/>
+      <c r="T175" s="19"/>
+      <c r="U175" s="19"/>
+      <c r="V175" s="19"/>
+      <c r="W175" s="19"/>
+      <c r="X175" s="19"/>
+      <c r="Y175" s="19"/>
+      <c r="Z175" s="19"/>
+      <c r="AA175" s="19"/>
+      <c r="AB175" s="19"/>
+      <c r="AC175" s="19"/>
+      <c r="AD175" s="19"/>
+      <c r="AE175" s="19"/>
+      <c r="AF175" s="19"/>
+      <c r="AG175" s="19"/>
+      <c r="AH175" s="19"/>
+      <c r="AI175" s="19"/>
+    </row>
+    <row r="176" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="19"/>
+      <c r="L176" s="19"/>
+      <c r="M176" s="19"/>
+      <c r="N176" s="19"/>
+      <c r="O176" s="19"/>
+      <c r="P176" s="19"/>
+      <c r="Q176" s="19"/>
+      <c r="R176" s="19"/>
+      <c r="S176" s="19"/>
+      <c r="T176" s="19"/>
+      <c r="U176" s="19"/>
+      <c r="V176" s="19"/>
+      <c r="W176" s="19"/>
+      <c r="X176" s="19"/>
+      <c r="Y176" s="19"/>
+      <c r="Z176" s="19"/>
+      <c r="AA176" s="19"/>
+      <c r="AB176" s="19"/>
+      <c r="AC176" s="19"/>
+      <c r="AD176" s="19"/>
+      <c r="AE176" s="19"/>
+      <c r="AF176" s="19"/>
+      <c r="AG176" s="19"/>
+      <c r="AH176" s="19"/>
+      <c r="AI176" s="19"/>
+    </row>
+    <row r="177" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
+      <c r="L177" s="19"/>
+      <c r="M177" s="19"/>
+      <c r="N177" s="19"/>
+      <c r="O177" s="19"/>
+      <c r="P177" s="19"/>
+      <c r="Q177" s="19"/>
+      <c r="R177" s="19"/>
+      <c r="S177" s="19"/>
+      <c r="T177" s="19"/>
+      <c r="U177" s="19"/>
+      <c r="V177" s="19"/>
+      <c r="W177" s="19"/>
+      <c r="X177" s="19"/>
+      <c r="Y177" s="19"/>
+      <c r="Z177" s="19"/>
+      <c r="AA177" s="19"/>
+      <c r="AB177" s="19"/>
+      <c r="AC177" s="19"/>
+      <c r="AD177" s="19"/>
+      <c r="AE177" s="19"/>
+      <c r="AF177" s="19"/>
+      <c r="AG177" s="19"/>
+      <c r="AH177" s="19"/>
+      <c r="AI177" s="19"/>
+    </row>
+    <row r="178" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="19"/>
+      <c r="L178" s="19"/>
+      <c r="M178" s="19"/>
+      <c r="N178" s="19"/>
+      <c r="O178" s="19"/>
+      <c r="P178" s="19"/>
+      <c r="Q178" s="19"/>
+      <c r="R178" s="19"/>
+      <c r="S178" s="19"/>
+      <c r="T178" s="19"/>
+      <c r="U178" s="19"/>
+      <c r="V178" s="19"/>
+      <c r="W178" s="19"/>
+      <c r="X178" s="19"/>
+      <c r="Y178" s="19"/>
+      <c r="Z178" s="19"/>
+      <c r="AA178" s="19"/>
+      <c r="AB178" s="19"/>
+      <c r="AC178" s="19"/>
+      <c r="AD178" s="19"/>
+      <c r="AE178" s="19"/>
+      <c r="AF178" s="19"/>
+      <c r="AG178" s="19"/>
+      <c r="AH178" s="19"/>
+      <c r="AI178" s="19"/>
+    </row>
+    <row r="179" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="19"/>
+      <c r="N179" s="19"/>
+      <c r="O179" s="19"/>
+      <c r="P179" s="19"/>
+      <c r="Q179" s="19"/>
+      <c r="R179" s="19"/>
+      <c r="S179" s="19"/>
+      <c r="T179" s="19"/>
+      <c r="U179" s="19"/>
+      <c r="V179" s="19"/>
+      <c r="W179" s="19"/>
+      <c r="X179" s="19"/>
+      <c r="Y179" s="19"/>
+      <c r="Z179" s="19"/>
+      <c r="AA179" s="19"/>
+      <c r="AB179" s="19"/>
+      <c r="AC179" s="19"/>
+      <c r="AD179" s="19"/>
+      <c r="AE179" s="19"/>
+      <c r="AF179" s="19"/>
+      <c r="AG179" s="19"/>
+      <c r="AH179" s="19"/>
+      <c r="AI179" s="19"/>
+    </row>
+    <row r="180" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="19"/>
+      <c r="N180" s="19"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="19"/>
+      <c r="Q180" s="19"/>
+      <c r="R180" s="19"/>
+      <c r="S180" s="19"/>
+      <c r="T180" s="19"/>
+      <c r="U180" s="19"/>
+      <c r="V180" s="19"/>
+      <c r="W180" s="19"/>
+      <c r="X180" s="19"/>
+      <c r="Y180" s="19"/>
+      <c r="Z180" s="19"/>
+      <c r="AA180" s="19"/>
+      <c r="AB180" s="19"/>
+      <c r="AC180" s="19"/>
+      <c r="AD180" s="19"/>
+      <c r="AE180" s="19"/>
+      <c r="AF180" s="19"/>
+      <c r="AG180" s="19"/>
+      <c r="AH180" s="19"/>
+      <c r="AI180" s="19"/>
+    </row>
+    <row r="181" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
+      <c r="L181" s="19"/>
+      <c r="M181" s="19"/>
+      <c r="N181" s="19"/>
+      <c r="O181" s="19"/>
+      <c r="P181" s="19"/>
+      <c r="Q181" s="19"/>
+      <c r="R181" s="19"/>
+      <c r="S181" s="19"/>
+      <c r="T181" s="19"/>
+      <c r="U181" s="19"/>
+      <c r="V181" s="19"/>
+      <c r="W181" s="19"/>
+      <c r="X181" s="19"/>
+      <c r="Y181" s="19"/>
+      <c r="Z181" s="19"/>
+      <c r="AA181" s="19"/>
+      <c r="AB181" s="19"/>
+      <c r="AC181" s="19"/>
+      <c r="AD181" s="19"/>
+      <c r="AE181" s="19"/>
+      <c r="AF181" s="19"/>
+      <c r="AG181" s="19"/>
+      <c r="AH181" s="19"/>
+      <c r="AI181" s="19"/>
+    </row>
+    <row r="182" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="19"/>
+      <c r="L182" s="19"/>
+      <c r="M182" s="19"/>
+      <c r="N182" s="19"/>
+      <c r="O182" s="19"/>
+      <c r="P182" s="19"/>
+      <c r="Q182" s="19"/>
+      <c r="R182" s="19"/>
+      <c r="S182" s="19"/>
+      <c r="T182" s="19"/>
+      <c r="U182" s="19"/>
+      <c r="V182" s="19"/>
+      <c r="W182" s="19"/>
+      <c r="X182" s="19"/>
+      <c r="Y182" s="19"/>
+      <c r="Z182" s="19"/>
+      <c r="AA182" s="19"/>
+      <c r="AB182" s="19"/>
+      <c r="AC182" s="19"/>
+      <c r="AD182" s="19"/>
+      <c r="AE182" s="19"/>
+      <c r="AF182" s="19"/>
+      <c r="AG182" s="19"/>
+      <c r="AH182" s="19"/>
+      <c r="AI182" s="19"/>
+    </row>
+    <row r="183" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="19"/>
+      <c r="N183" s="19"/>
+      <c r="O183" s="19"/>
+      <c r="P183" s="19"/>
+      <c r="Q183" s="19"/>
+      <c r="R183" s="19"/>
+      <c r="S183" s="19"/>
+      <c r="T183" s="19"/>
+      <c r="U183" s="19"/>
+      <c r="V183" s="19"/>
+      <c r="W183" s="19"/>
+      <c r="X183" s="19"/>
+      <c r="Y183" s="19"/>
+      <c r="Z183" s="19"/>
+      <c r="AA183" s="19"/>
+      <c r="AB183" s="19"/>
+      <c r="AC183" s="19"/>
+      <c r="AD183" s="19"/>
+      <c r="AE183" s="19"/>
+      <c r="AF183" s="19"/>
+      <c r="AG183" s="19"/>
+      <c r="AH183" s="19"/>
+      <c r="AI183" s="19"/>
+    </row>
+    <row r="184" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="19"/>
+      <c r="L184" s="19"/>
+      <c r="M184" s="19"/>
+      <c r="N184" s="19"/>
+      <c r="O184" s="19"/>
+      <c r="P184" s="19"/>
+      <c r="Q184" s="19"/>
+      <c r="R184" s="19"/>
+      <c r="S184" s="19"/>
+      <c r="T184" s="19"/>
+      <c r="U184" s="19"/>
+      <c r="V184" s="19"/>
+      <c r="W184" s="19"/>
+      <c r="X184" s="19"/>
+      <c r="Y184" s="19"/>
+      <c r="Z184" s="19"/>
+      <c r="AA184" s="19"/>
+      <c r="AB184" s="19"/>
+      <c r="AC184" s="19"/>
+      <c r="AD184" s="19"/>
+      <c r="AE184" s="19"/>
+      <c r="AF184" s="19"/>
+      <c r="AG184" s="19"/>
+      <c r="AH184" s="19"/>
+      <c r="AI184" s="19"/>
+    </row>
+    <row r="185" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="19"/>
+      <c r="R185" s="19"/>
+      <c r="S185" s="19"/>
+      <c r="T185" s="19"/>
+      <c r="U185" s="19"/>
+      <c r="V185" s="19"/>
+      <c r="W185" s="19"/>
+      <c r="X185" s="19"/>
+      <c r="Y185" s="19"/>
+      <c r="Z185" s="19"/>
+      <c r="AA185" s="19"/>
+      <c r="AB185" s="19"/>
+      <c r="AC185" s="19"/>
+      <c r="AD185" s="19"/>
+      <c r="AE185" s="19"/>
+      <c r="AF185" s="19"/>
+      <c r="AG185" s="19"/>
+      <c r="AH185" s="19"/>
+      <c r="AI185" s="19"/>
+    </row>
+    <row r="186" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="19"/>
+      <c r="N186" s="19"/>
+      <c r="O186" s="19"/>
+      <c r="P186" s="19"/>
+      <c r="Q186" s="19"/>
+      <c r="R186" s="19"/>
+      <c r="S186" s="19"/>
+      <c r="T186" s="19"/>
+      <c r="U186" s="19"/>
+      <c r="V186" s="19"/>
+      <c r="W186" s="19"/>
+      <c r="X186" s="19"/>
+      <c r="Y186" s="19"/>
+      <c r="Z186" s="19"/>
+      <c r="AA186" s="19"/>
+      <c r="AB186" s="19"/>
+      <c r="AC186" s="19"/>
+      <c r="AD186" s="19"/>
+      <c r="AE186" s="19"/>
+      <c r="AF186" s="19"/>
+      <c r="AG186" s="19"/>
+      <c r="AH186" s="19"/>
+      <c r="AI186" s="19"/>
+    </row>
+    <row r="187" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="19"/>
+      <c r="S187" s="19"/>
+      <c r="T187" s="19"/>
+      <c r="U187" s="19"/>
+      <c r="V187" s="19"/>
+      <c r="W187" s="19"/>
+      <c r="X187" s="19"/>
+      <c r="Y187" s="19"/>
+      <c r="Z187" s="19"/>
+      <c r="AA187" s="19"/>
+      <c r="AB187" s="19"/>
+      <c r="AC187" s="19"/>
+      <c r="AD187" s="19"/>
+      <c r="AE187" s="19"/>
+      <c r="AF187" s="19"/>
+      <c r="AG187" s="19"/>
+      <c r="AH187" s="19"/>
+      <c r="AI187" s="19"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F74E031A-ED5F-4640-BE0D-658A600B073D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B821B0FD-EABB-4C85-B5FC-2032A0C1B9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C24675-2BC4-41BE-9044-C97E54D12B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{A3926FB3-B729-449F-AF60-A6E01109C263}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A3926FB3-B729-449F-AF60-A6E01109C263}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Alibiba</t>
   </si>
@@ -275,6 +275,9 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>n.a.</t>
+  </si>
 </sst>
 </file>
 
@@ -285,13 +288,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -473,36 +482,49 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -841,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61689B9D-AECD-4525-8AC9-0A6E41444C30}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -863,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="2">
-        <v>115.7</v>
+        <v>134.1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -872,10 +894,10 @@
       </c>
       <c r="J3" s="3">
         <f>+J2*J10</f>
-        <v>108.758</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
+        <v>126.05399999999999</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -886,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="5">
-        <v>18791</v>
+        <v>18570</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -898,10 +920,10 @@
       </c>
       <c r="J5" s="3">
         <f>+J3*J4</f>
-        <v>2043671.578</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
+        <v>2340822.7799999998</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -909,11 +931,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="3">
-        <f>145487+228826</f>
-        <v>374313</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>16</v>
+        <f>183120+191737</f>
+        <v>374857</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -931,8 +953,8 @@
         <v>7</v>
       </c>
       <c r="J7" s="3">
-        <f>22562+49909+122398</f>
-        <v>194869</v>
+        <f>24584+50919</f>
+        <v>75503</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -951,7 +973,7 @@
       </c>
       <c r="J8" s="3">
         <f>+J5-J6+J7</f>
-        <v>1864227.578</v>
+        <v>2041468.7799999998</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -991,7 +1013,7 @@
       </c>
       <c r="J11" s="16">
         <f>+J5/Model!Q26</f>
-        <v>15.784904441183286</v>
+        <v>18.080040009268554</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1007,7 +1029,7 @@
       </c>
       <c r="J12" s="16">
         <f>+J8/Model!Q19</f>
-        <v>13.230386274440226</v>
+        <v>14.488263581845922</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1060,11 +1082,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD53C-DF31-43FF-9A0A-7B6CC2D2F3AA}">
   <dimension ref="A1:AI187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1131,11 +1153,15 @@
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5">
+        <v>108522</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5">
+        <v>104072</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1175,11 +1201,15 @@
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>29293</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>34741</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1219,11 +1249,15 @@
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>26549</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <v>33398</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1263,11 +1297,15 @@
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1307,11 +1345,15 @@
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1351,11 +1393,15 @@
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1395,11 +1441,17 @@
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <f>81354+419</f>
+        <v>81773</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <f>58599+519</f>
+        <v>59118</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1439,11 +1491,15 @@
       <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>-22049</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>-19677</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1486,11 +1542,15 @@
       <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="20">
+        <v>243236</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="20">
+        <v>247652</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1530,11 +1590,15 @@
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>146106</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>136429</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1574,11 +1638,26 @@
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:F13" si="0">+C11-C12</f>
+        <v>97130</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <f>+G11-G12</f>
+        <v>111223</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1587,11 +1666,11 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5">
-        <f t="shared" ref="O13:P13" si="0">+O11-O12</f>
+        <f t="shared" ref="O13:P13" si="1">+O11-O12</f>
         <v>318992</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354845</v>
       </c>
       <c r="Q13" s="5">
@@ -1621,11 +1700,15 @@
       <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>13373</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>15001</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1665,11 +1748,15 @@
       <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>32696</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <v>53178</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1709,11 +1796,15 @@
       <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>13280</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5">
+        <v>7398</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1753,11 +1844,15 @@
       <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>1792</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5">
+        <v>807</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1797,11 +1892,15 @@
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5">
+        <v>-149</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1842,24 +1941,48 @@
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="C19" s="5">
+        <f t="shared" ref="C19:J19" si="2">+C13-SUM(C14:C18)</f>
+        <v>35989</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>34988</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5">
-        <f t="shared" ref="O19:P19" si="1">+O13-SUM(O14:O18)</f>
+        <f t="shared" ref="O19:P19" si="3">+O13-SUM(O14:O18)</f>
         <v>100351</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113350</v>
       </c>
       <c r="Q19" s="5">
@@ -1889,11 +2012,15 @@
       <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>-1478</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5">
+        <v>17376</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -1933,11 +2060,15 @@
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>2188</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5">
+        <v>2478</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1977,11 +2108,15 @@
       <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>257</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5">
+        <v>348</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2021,24 +2156,48 @@
       <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:J23" si="4">+C19+C20-C21+C22</f>
+        <v>32580</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="4"/>
+        <v>50234</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5">
-        <f t="shared" ref="O23:P23" si="2">+O19+O20-O21+O22</f>
+        <f t="shared" ref="O23:P23" si="5">+O19+O20-O21+O22</f>
         <v>89185</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>101596</v>
       </c>
       <c r="Q23" s="5">
@@ -2068,11 +2227,15 @@
       <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>10063</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5">
+        <v>8865</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2112,11 +2275,17 @@
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <f>-1505-368+121</f>
+        <v>-1752</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="24">
+        <f>-1013+1733-2467</f>
+        <v>-1747</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2159,11 +2328,26 @@
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:F26" si="6">+C23-C24-C25</f>
+        <v>24269</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <f>+G23-G24-G25</f>
+        <v>43116</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -2172,11 +2356,11 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5">
-        <f t="shared" ref="O26:P26" si="3">+O23-O24+O25</f>
+        <f t="shared" ref="O26:P26" si="7">+O23-O24+O25</f>
         <v>72509</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>79741</v>
       </c>
       <c r="Q26" s="5">
@@ -2241,33 +2425,48 @@
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="C28" s="21">
+        <f t="shared" ref="C28:G28" si="8">+C26/C29</f>
+        <v>1.2555745253246418</v>
+      </c>
+      <c r="D28" s="21" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="21" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="21" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" ref="G28" si="9">+G26/G29</f>
+        <v>2.3218093699515348</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="21" t="e">
-        <f t="shared" ref="L28" si="4">+L26/L29</f>
+        <f t="shared" ref="L28" si="10">+L26/L29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="21" t="e">
-        <f t="shared" ref="M28" si="5">+M26/M29</f>
+        <f t="shared" ref="M28" si="11">+M26/M29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="21" t="e">
-        <f t="shared" ref="N28" si="6">+N26/N29</f>
+        <f t="shared" ref="N28" si="12">+N26/N29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" ref="O28:P28" si="7">+O26/O29</f>
+        <f t="shared" ref="O28:P28" si="13">+O26/O29</f>
         <v>3.456101048617731</v>
       </c>
       <c r="P28" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.951095035179863</v>
       </c>
       <c r="Q28" s="21">
@@ -2297,11 +2496,15 @@
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>19329</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5">
+        <v>18570</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -2380,7 +2583,10 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="22">
+        <f>+G3/C3-1</f>
+        <v>-4.1005510403420486E-2</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -2389,11 +2595,11 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="22" t="e">
-        <f t="shared" ref="O31:P31" si="8">+O3/N3-1</f>
+        <f t="shared" ref="O31:P31" si="14">+O3/N3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.2484717066063835E-2</v>
       </c>
       <c r="Q31" s="22">
@@ -2427,7 +2633,10 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="22">
+        <f t="shared" ref="G32:G33" si="15">+G4/C4-1</f>
+        <v>0.18598299935138085</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -2436,15 +2645,15 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="22" t="e">
-        <f t="shared" ref="O32:Q37" si="9">+O4/N4-1</f>
+        <f t="shared" ref="O32:Q37" si="16">+O4/N4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.45516693614727832</v>
       </c>
       <c r="Q32" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.28949882063977861</v>
       </c>
       <c r="R32" s="5"/>
@@ -2474,7 +2683,10 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="22">
+        <f t="shared" si="15"/>
+        <v>0.25797581829824101</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2483,15 +2695,15 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="22" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.7797907185715509E-2</v>
       </c>
       <c r="Q33" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.10955684659785292</v>
       </c>
       <c r="R33" s="5"/>
@@ -2521,7 +2733,9 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -2530,15 +2744,15 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="22" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.27747961605944882</v>
       </c>
       <c r="Q34" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.2742880226216844E-2</v>
       </c>
       <c r="R34" s="5"/>
@@ -2568,7 +2782,9 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -2577,15 +2793,15 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="22" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.1084441529011867</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.12163472793552055</v>
       </c>
       <c r="R35" s="5"/>
@@ -2615,7 +2831,9 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -2624,15 +2842,15 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="22" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.14644328779006721</v>
       </c>
       <c r="Q36" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>5.3062189642941515E-2</v>
       </c>
       <c r="R36" s="5"/>
@@ -2662,7 +2880,10 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="26">
+        <f>+G10/C10-1</f>
+        <v>-0.10757857499206314</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -2671,15 +2892,15 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="22" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-2.4270096136773001E-2</v>
       </c>
       <c r="Q37" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7.2468816779406309E-2</v>
       </c>
       <c r="R37" s="5"/>
@@ -2709,7 +2930,10 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="27">
+        <f>+G11/C11-1</f>
+        <v>1.8155207288394815E-2</v>
+      </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
@@ -2718,11 +2942,11 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="23" t="e">
-        <f t="shared" ref="O38:P38" si="10">+O11/N11-1</f>
+        <f t="shared" ref="O38:P38" si="17">+O11/N11-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8.3437417619925291E-2</v>
       </c>
       <c r="Q38" s="23">
@@ -2752,24 +2976,48 @@
       <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="C39" s="22">
+        <f t="shared" ref="C39:J39" si="18">+C13/C11</f>
+        <v>0.39932411320692662</v>
+      </c>
+      <c r="D39" s="22" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="22" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="22" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" si="18"/>
+        <v>0.44911004150986061</v>
+      </c>
+      <c r="H39" s="22" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="22" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="22" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="22">
-        <f t="shared" ref="O39:P39" si="11">+O13/O11</f>
+        <f t="shared" ref="O39:P39" si="19">+O13/O11</f>
         <v>0.36721166542149242</v>
       </c>
       <c r="P39" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.37702620573585161</v>
       </c>
       <c r="Q39" s="22">
@@ -2799,24 +3047,48 @@
       <c r="B40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="C40" s="22">
+        <f t="shared" ref="C40:J40" si="20">+C19/C11</f>
+        <v>0.14795918367346939</v>
+      </c>
+      <c r="D40" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="20"/>
+        <v>0.14127889134753605</v>
+      </c>
+      <c r="H40" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="22">
-        <f t="shared" ref="O40:P40" si="12">+O19/O11</f>
+        <f t="shared" ref="O40:P40" si="21">+O19/O11</f>
         <v>0.1155203197469284</v>
       </c>
       <c r="P40" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.12043545891913027</v>
       </c>
       <c r="Q40" s="22">
@@ -2846,24 +3118,48 @@
       <c r="B41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="C41" s="22">
+        <f t="shared" ref="C41:J41" si="22">+C24/C23</f>
+        <v>0.30887047268262741</v>
+      </c>
+      <c r="D41" s="22" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="22" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="22" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="22"/>
+        <v>0.17647410120635426</v>
+      </c>
+      <c r="H41" s="22" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="22" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="22" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="22">
-        <f t="shared" ref="O41:P41" si="13">+O24/O23</f>
+        <f t="shared" ref="O41:P41" si="23">+O24/O23</f>
         <v>0.17434546168077591</v>
       </c>
       <c r="P41" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.22175085633292649</v>
       </c>
       <c r="Q41" s="22">

--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C24675-2BC4-41BE-9044-C97E54D12B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42CBB06-7082-4406-8E29-987754A36E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A3926FB3-B729-449F-AF60-A6E01109C263}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{A3926FB3-B729-449F-AF60-A6E01109C263}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61689B9D-AECD-4525-8AC9-0A6E41444C30}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1083,10 +1083,10 @@
   <dimension ref="A1:AI187"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2426,7 +2426,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="21">
-        <f t="shared" ref="C28:G28" si="8">+C26/C29</f>
+        <f t="shared" ref="C28:F28" si="8">+C26/C29</f>
         <v>1.2555745253246418</v>
       </c>
       <c r="D28" s="21" t="e">

--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42CBB06-7082-4406-8E29-987754A36E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE415E5-6E34-49B5-910A-7FA26902907C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{A3926FB3-B729-449F-AF60-A6E01109C263}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Alibiba</t>
-  </si>
-  <si>
-    <t>BABA</t>
   </si>
   <si>
     <t>IR</t>
@@ -278,6 +275,9 @@
   <si>
     <t>n.a.</t>
   </si>
+  <si>
+    <t>9988.HK</t>
+  </si>
 </sst>
 </file>
 
@@ -288,13 +288,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -482,49 +488,50 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -864,12 +871,13 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.7109375" style="2"/>
+    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -879,33 +887,33 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2">
-        <v>134.1</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3">
         <f>+J2*J10</f>
-        <v>126.05399999999999</v>
+        <v>161.67999999999998</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
+      <c r="B4" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="5">
         <v>18570</v>
@@ -913,44 +921,44 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
         <f>+J3*J4</f>
-        <v>2340822.7799999998</v>
+        <v>3002397.5999999996</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3">
         <f>183120+191737</f>
         <v>374857</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="I7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="3">
         <f>24584+50919</f>
@@ -959,42 +967,42 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="I8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
         <f>+J5-J6+J7</f>
-        <v>2041468.7799999998</v>
+        <v>2703043.5999999996</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="15"/>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
         <v>0.94</v>
@@ -1002,58 +1010,58 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="15"/>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="16">
         <f>+J5/Model!Q26</f>
-        <v>18.080040009268554</v>
+        <v>23.189909631574878</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="15"/>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="16">
         <f>+J8/Model!Q19</f>
-        <v>14.488263581845922</v>
+        <v>19.183447003300092</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
       <c r="I14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="3">
         <v>194320</v>
@@ -1062,12 +1070,12 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1101,57 +1109,57 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>108522</v>
@@ -1199,7 +1207,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5">
         <v>29293</v>
@@ -1247,7 +1255,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5">
         <v>26549</v>
@@ -1295,7 +1303,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -1343,7 +1351,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -1391,7 +1399,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1439,7 +1447,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5">
         <f>81354+419</f>
@@ -1489,7 +1497,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5">
         <v>-22049</v>
@@ -1540,7 +1548,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="20">
         <v>243236</v>
@@ -1588,7 +1596,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5">
         <v>146106</v>
@@ -1636,7 +1644,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" ref="C13:F13" si="0">+C11-C12</f>
@@ -1698,7 +1706,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5">
         <v>13373</v>
@@ -1746,7 +1754,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="5">
         <v>32696</v>
@@ -1794,7 +1802,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5">
         <v>13280</v>
@@ -1842,7 +1850,7 @@
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5">
         <v>1792</v>
@@ -1890,7 +1898,7 @@
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -1939,7 +1947,7 @@
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" ref="C19:J19" si="2">+C13-SUM(C14:C18)</f>
@@ -2010,7 +2018,7 @@
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5">
         <v>-1478</v>
@@ -2058,7 +2066,7 @@
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5">
         <v>2188</v>
@@ -2106,7 +2114,7 @@
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="5">
         <v>257</v>
@@ -2154,7 +2162,7 @@
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" ref="C23:J23" si="4">+C19+C20-C21+C22</f>
@@ -2225,7 +2233,7 @@
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="5">
         <v>10063</v>
@@ -2273,7 +2281,7 @@
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5">
         <f>-1505-368+121</f>
@@ -2326,7 +2334,7 @@
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" ref="C26:F26" si="6">+C23-C24-C25</f>
@@ -2423,7 +2431,7 @@
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="21">
         <f t="shared" ref="C28:F28" si="8">+C26/C29</f>
@@ -2494,7 +2502,7 @@
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5">
         <v>19329</v>
@@ -2577,7 +2585,7 @@
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2627,7 +2635,7 @@
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2677,7 +2685,7 @@
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2727,14 +2735,14 @@
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2776,14 +2784,14 @@
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2825,14 +2833,14 @@
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2874,7 +2882,7 @@
     </row>
     <row r="37" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2924,7 +2932,7 @@
     </row>
     <row r="38" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -2974,7 +2982,7 @@
     </row>
     <row r="39" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="22">
         <f t="shared" ref="C39:J39" si="18">+C13/C11</f>
@@ -3045,7 +3053,7 @@
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="22">
         <f t="shared" ref="C40:J40" si="20">+C19/C11</f>
@@ -3116,7 +3124,7 @@
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="22">
         <f t="shared" ref="C41:J41" si="22">+C24/C23</f>

--- a/BABA.xlsx
+++ b/BABA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE415E5-6E34-49B5-910A-7FA26902907C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FFBEAD-26A9-4D1D-BEA6-0D0E05B7EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{A3926FB3-B729-449F-AF60-A6E01109C263}"/>
   </bookViews>
@@ -893,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
       </c>
       <c r="J3" s="3">
         <f>+J2*J10</f>
-        <v>161.67999999999998</v>
+        <v>166.38</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>16</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="J5" s="3">
         <f>+J3*J4</f>
-        <v>3002397.5999999996</v>
+        <v>3089676.6</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>16</v>
@@ -981,7 +981,7 @@
       </c>
       <c r="J8" s="3">
         <f>+J5-J6+J7</f>
-        <v>2703043.5999999996</v>
+        <v>2790322.6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="J11" s="16">
         <f>+J5/Model!Q26</f>
-        <v>23.189909631574878</v>
+        <v>23.864034911562523</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="J12" s="16">
         <f>+J8/Model!Q19</f>
-        <v>19.183447003300092</v>
+        <v>19.802864341222811</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
